--- a/data/outputs/deux-sevres/deux-sevres.xlsx
+++ b/data/outputs/deux-sevres/deux-sevres.xlsx
@@ -512,7 +512,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Québec</t>
+          <t>21-06-1763</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -572,7 +572,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hôtel-Dieu de Québec</t>
+          <t>Québec</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Saint-Pierre</t>
+          <t>Église Saint-Pierre</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Saint-Jean, Île d'Orléans (Qc)</t>
+          <t>Saint-Jean, Île d’Orléans (Qc)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Saint-André</t>
+          <t>Paroisse Saint-André</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -901,7 +901,11 @@
           <t>BAREAU dit Bréliau, Jean. Né en 1651. Fils de Jean Bareau et de Françoise Cellier. Marié à Jeanne Cusson, à Cap-de-la-Madeleine (Qc), le 09-11-1679. Quatre enfants. Décédé à Laprairie (Qc), le 04-09-1690, tué par les Iroquois. Cité à Laprairie (Qc), le 17-08-1673. (IFGH)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Laprairie (Qc)</t>
@@ -1047,7 +1051,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>prieuré Saint-Maixent de Verrines</t>
+          <t>Prieuré Saint-Maixent de Verrines</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1080,7 +1084,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Québec</t>
+          <t>Hôtel-Dieu de Québec</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1140,7 +1144,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>En 1758</t>
+          <t>1758</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1287,7 +1291,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Saint-André</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1319,7 +1323,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Saint-Jean</t>
+          <t>Paroisse Saint-Jean</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1351,12 +1355,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pas spécifié</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Québec</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1409,14 +1413,10 @@
           <t>BILODEAU, Jérôme. Né vers 1636. Fils de Jérôme Bilodeau et de Marie Gandillard. Marié à Jeanne Ripoche, à Québec, le 04-02-1664. Décédé en France, après 1670. Engagé chez le notaire Cherbonnier, à La Rochelle (Fr.), pour la Nouvelle-France, le 15-03-1657. (FO)</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1521,11 +1521,7 @@
           <t>BLANCHET dit Laforest, Pierre. Meunier. Né en 1643. Fils de René Blanchet et de Marie-Jeanne Marier. Marié à Marie-Françoise Harel, à Champlain (Qc), le 04-07-1696. Six enfants. Inhumé à Trois-Rivières (Qc), le 03-12-1708. (IFGH)</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>Trois-Rivières (Qc)</t>
@@ -1587,7 +1583,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>La Rochelle (France)</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1803,7 +1799,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Inconnu (entre 1666 et 1676)</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1835,7 +1831,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Église Saint-Germain</t>
+          <t>Saint-Germain</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1897,16 +1893,8 @@
           <t>BOURDEAU dit Leroux, Isaac. Fils d’Abraham Bourdeau et de Catherine Rousseau. Marié à Marie ou Marie-Françoise Courault, à Chambly (Qc), le 20-01-1718. Quatre enfants. (IFGH)</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Chambly (Qc)</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
           <t>SAINT-COUTANT (79120)</t>
@@ -2013,11 +2001,7 @@
           <t>BREUILLARD ou BREUILLAC dit Laroche, Amable. Né vers 1652. Fils de Daniel Breuillac et de Jeanne Courtin. Marié à Marie Lafond, à Batiscan (Qc), le 13-02-1687. Neuf enfants. Décédé à Varennes (Qc), le 10-04-1736. Mentionné en Nouvelle-France, en 1687. (FO-IFGH)</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>Varennes (Qc)</t>
@@ -2107,7 +2091,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Notre-Dame</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2137,8 +2121,16 @@
           <t>BUREAU, Isaac. Né vers 1733. Fils d’Isaac Bureau et de Marie Modet. Marié à Marie-Angélique Girard, à Montréal (Qc), le 10-01-1757. (IFGH)</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>MAUZÉ-SUR-LE-MIGNON (79210)</t>
@@ -2161,11 +2153,7 @@
           <t>CADET, Michel. Boucher. Né vers 1665. Fils de Michel Cadet et d’Élisabeth Fièbvre. Marié à 1) Marie Constantin, à Québec, le 25-01-1694. Six enfants. 2) Geneviève Gauthier, à Québec, le 26-04-1703. Quatre enfants. Décédé à Québec, en 1708. Il abjure sa religion protestante, à Niort, le 21-08-1685. Première mention, à l’Hôtel-Dieu de Québec, le 05-06-1690. (IFGH)</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>Québec</t>
@@ -2279,7 +2267,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Eglise Saint-Porchaire</t>
+          <t>Saint-Porchaire</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2448,7 +2436,7 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>L’Ancienne-Lorette (Qc)</t>
+          <t>L'Ancienne-Lorette (Qc)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2588,7 +2576,7 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Québec</t>
+          <t>Hôtel-Dieu de Québec</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2729,7 +2717,11 @@
           <t>DEQUAIN, Anne. Fille du Roy. Née vers 1645. Fille de Fleurimon Degain et d’Henriette Demeuis. Mariée à François Lareau, à Québec, le 28-10-1669. Décédée à la Petite-Rivière-Saint-François (Qc), en 1734. (ILMPC)</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>Petite-Rivière-Saint-François (Qc)</t>
@@ -2853,11 +2845,7 @@
           <t>DROUARD, Marie-Anne. Fille de Fleurant Drouard et de Jeanne Mathieu. Mariée à Jean-François Hazeur, à La Rochelle (Fr.), le 01-02-1672. Un enfant. Décédé à Québec, le 08-12-1690. (IFGH)</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>Québec</t>
@@ -2885,16 +2873,8 @@
           <t>DUPONT dit Vadeboncoeur, Jacques. Sergent. Fils de Jacques Dupont et de Jeanne Fouladou. Marié à Marie-Anne Trotier, à Montréal (Qc), le 22-11-1735. (IFGH)</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Pas spécifié</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Pas spécifié</t>
-        </is>
-      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
           <t>BRIOUX-SUR-BOUTONNE (79170)</t>
@@ -2976,7 +2956,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Nouvelle-France (env. 1730)</t>
+          <t>Nouvelle-France</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3173,8 +3153,16 @@
           <t>FOURNIER dit Brisefer, Pierre. Fils de Pierre Fournier et de Marguerite-Hélène Métayer. Marié à Marie-Louise Lienard, à Québec, le 29-09-1749. (IFGH)</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>NIORT (79000)</t>
@@ -3279,7 +3267,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Notre-Dame</t>
+          <t>Paroisse Notre-Dame</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -3331,7 +3319,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Données introuvables</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3368,7 +3356,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3727,10 +3715,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Liguaire</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+          <t>Saint-Liguaire</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr">
         <is>
           <t>NIORT (79000)</t>
@@ -3760,7 +3752,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3787,7 +3779,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Sainte-Marie-Madeleine</t>
+          <t>Paroisse Sainte-Marie-Madeleine</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3879,12 +3871,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Saint-André</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Québec, l'Hôtel-Dieu de Québec</t>
+          <t>Québec</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4040,7 +4032,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Entre 1703 et 1706</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4157,16 +4149,8 @@
           <t>LA CROSSE, Mathurine. Née en 1635. Fille de Jean La Crosse et de Nolette de Veau. Elle est enceinte et engagée par François Péron, à La Rochelle (Fr.) et s’embarque sur le navire « le Taureau ». Première mention en Nouvelle-France, en 1658. Renvoyée par le gouverneur Voyer d’Argenson. Mariée à Pierre Nobileau, à La Rochelle (Fr.), dans l’église du Couvent d’oratoriens Sainte-Marguerite « L’Oratoire », en 1666. (ILMPC)</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>La Rochelle, France</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
           <t>FORS (79230)</t>
@@ -4279,12 +4263,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4404,7 +4388,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Charlesbourg, Qc</t>
+          <t>Charlesbourg (Qc)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4462,11 +4446,7 @@
           <t>Notre-Dame</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Vide</t>
-        </is>
-      </c>
+      <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
           <t>NIORT (79000)</t>
@@ -4547,12 +4527,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>temple calviniste</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>non spécifié</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4659,7 +4639,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Données introuvables</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4722,11 +4702,7 @@
           <t>Saint-Grégoire</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
           <t>AUGÉ (79400)</t>
@@ -4783,7 +4759,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Saturnin</t>
+          <t>Saint-Saturnin</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4908,7 +4884,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sainte-Famille, Île-d’Orléans (Qc)</t>
+          <t>Île-d’Orléans (Qc), Sainte-Famille</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -4996,7 +4972,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Neuville (Qc)</t>
+          <t>Neuville</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5051,12 +5027,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Port-Lajoie, Nouveau-Brunswick</t>
+          <t>Port-Lajoie (Nouveau-Brunswick)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5113,7 +5089,11 @@
           <t>PERRAULT* ou PAYRAULT, Jean. Baptisé le 19-09-1731, paroisse Saint-Pierre. Fils de Jean Perrault et de Marie-Jeanne Guérineau. Marié à Marie-Anne Ménard, à Montréal (Qc), le 27-06-1752. Décédé à Chambly (Qc), le 31-12-1809. Parti en Nouvelle-France, avec ses parents, en 1743. (FO)</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>Chambly (Qc)</t>
@@ -5143,7 +5123,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Paroisse Saint-Pierre</t>
+          <t>Saint-Pierre</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5175,7 +5155,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Paroisse Saint-André</t>
+          <t>Saint-André</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5244,7 +5224,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Saint-Pierre, Île-d’Orléans (Qc)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5299,12 +5279,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>chapelle Notre-Dame</t>
+          <t>Notre-Dame</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Champlain (Qc)</t>
+          <t>Champlain</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5329,16 +5309,8 @@
           <t>PATRY, André. Fils d’André Patry et de Renée Cousineau. Marié à Henriette Cartois, fille du Roy, à Québec, le 23-05-1675. Trois enfants. (FG)</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
           <t>AIRVAULT (79600)</t>
@@ -5454,11 +5426,7 @@
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Montréal, Qc</t>
-        </is>
-      </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
           <t>MONTALEMBERT (79190)</t>
@@ -5576,7 +5544,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Saint-Joachim</t>
+          <t>Saint-Joachim (Qc)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5667,14 +5635,10 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Valeur introuvable ou non spécifiée</t>
-        </is>
-      </c>
+          <t>église Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
           <t>MELLERAN (79190)</t>
@@ -5699,12 +5663,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Inconnu (car il a été baptisé)</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Québec</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -5731,7 +5695,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Paroisse Saint-André</t>
+          <t>Saint-André</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -5791,12 +5755,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Non spécifié</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -5823,7 +5787,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Non spécifié</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5941,10 +5905,14 @@
           <t>VEILLET, Jean. Militaire. Né en 1661, se déclare originaire de la paroisse Saint-André. Marié à Catherine Lariou, à Batiscan (Qc), le 19-11-1698. Décédé, en 1741. Il abjure sa foi protestante, en 1685, dans l’église Saint-André et traverse l’Atlantique, en 1687 au départ de La Rochelle. Soldat des troupes de la Marine, compagnie de Vaudreuil. (ILMPC)</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Batiscan (Qc)</t>
+          <t>Décès en 1741 (Lieu inconnu)</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -5971,12 +5939,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Né en 1604 signifie que la date de naissance est inconnue, mais elle est baptisée en ce lieu</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Elle meurt en 1674</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">

--- a/data/outputs/deux-sevres/deux-sevres.xlsx
+++ b/data/outputs/deux-sevres/deux-sevres.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,32 +436,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>family_name</t>
+          <t>lastname</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>firstname</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>mainplace</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>birthplace</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>deathplace</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>bio</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>place_of_birth</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>place_of_death</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>principal_place</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ABRAHAM dit Desmarais, René. Voyageur. Né entre 1645 et 1648. Fils de Jean Abraham et de Jeanne Brassart. Marié à 1) Jeanne Blondeau, à Trois-Rivières (Qc), le 16-11-1671. 2) Marguerite Girard, à Saint-Françoisdu-Lac (Qc), le 30-11-1690. Trois enfants. Décédé à Saint-François-dulac (Qc), après 1714. (IFGH)</t>
+          <t>SECONDIGNE-SUR-BELLE (79170)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SECONDIGNE-SUR-BELLE (79170)</t>
+          <t>ABRAHAM dit Desmarais, René. Voyageur. Né entre 1645 et 1648. Fils de Jean Abraham et de Jeanne Brassart. Marié à 1) Jeanne Blondeau, à Trois-Rivières (Qc), le 16-11-1671. 2) Marguerite Girard, à Saint-Françoisdu-Lac (Qc), le 30-11-1690. Trois enfants. Décédé à Saint-François-dulac (Qc), après 1714. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AIMÉ ou AYMÉ, Louis. Né vers 1695. Fils de Pierre Aymé et de Marie Caillaud. Marié à Élisabeth Morin, à Québec, le 03-10-1731. Décédé le 21-06-1763. Soldat des troupes de la Marine, compagnie de Contrecoeur, arrivé en Nouvelle-France, en 1727. (FO)</t>
+          <t>SAINT-VINCENT-LA-CHÂTRE (79500)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SAINT-VINCENT-LA-CHÂTRE (79500)</t>
+          <t>AIMÉ ou AYMÉ, Louis. Né vers 1695. Fils de Pierre Aymé et de Marie Caillaud. Marié à Élisabeth Morin, à Québec, le 03-10-1731. Décédé le 21-06-1763. Soldat des troupes de la Marine, compagnie de Contrecoeur, arrivé en Nouvelle-France, en 1727. (FO)</t>
         </is>
       </c>
     </row>
@@ -534,22 +534,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>MELLERAN (79190)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>ANDRY, Jean-Pierre. Baptisé le 16-03-1724, église Notre-Dame. Fils de Jean Andry et de Jeanne Landau. Marié à Marie-Barbe Monmelian, à Québec, le 17-04-1752. Décédé, en 1756. (IFGH-ILMPC)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MELLERAN (79190)</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ANGO dit Vadeboncoeur, Nicolas. Soldat canonnier. Né en 1707. Décédé à l’Hôtel-Dieu de Québec, le 11-11-1727. (IFGH)</t>
+          <t>THOUARS (79100)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>THOUARS (79100)</t>
+          <t>ANGO dit Vadeboncoeur, Nicolas. Soldat canonnier. Né en 1707. Décédé à l’Hôtel-Dieu de Québec, le 11-11-1727. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANTRADE*, Jacques. Laboureur. Baptisé le 19-04-1643, paroisse Saint-André. Fils de Louis Antrade et de Louise Metayer. Marié à Marie Bouart, à Québec, le 16-08-1668. Un enfant. Décédé, entre 1669 et 1672. Première mention, en Nouvelle-France, en 1667. (ILMPC-IFGH)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,7 +605,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>ANTRADE*, Jacques. Laboureur. Baptisé le 19-04-1643, paroisse Saint-André. Fils de Louis Antrade et de Louise Metayer. Marié à Marie Bouart, à Québec, le 16-08-1668. Un enfant. Décédé, entre 1669 et 1672. Première mention, en Nouvelle-France, en 1667. (ILMPC-IFGH)</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ARDONIN, Louise. Fille de Pierre Ardonin et de Jeanne Durand. Mariée à Jacques Martin, à Louisbourg (Nouvelle-Écosse), le 02-10-1752. (FG)</t>
+          <t>AUBIGNÉ (79110)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AUBIGNÉ (79110)</t>
+          <t>ARDONIN, Louise. Fille de Pierre Ardonin et de Jeanne Durand. Mariée à Jacques Martin, à Louisbourg (Nouvelle-Écosse), le 02-10-1752. (FG)</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ASSAILLY* dit Lajeunesse, Pierre. Militaire. Baptisé le 04-01-1733, paroisse Saint-Jouin. Fils de Mathurin Assailly et de Renée Turquois. Marié à Marie-Suzanne Sauriol, à Saint-Laurent, Montréal (Qc), le 21-01-1760. Huit enfants. Soldat des troupes de la Marine, compagnie de Boisbec. (IFGH)</t>
+          <t>SAINT-JOUIN-DE-MARNES (79600)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -661,7 +661,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SAINT-JOUIN-DE-MARNES (79600)</t>
+          <t>ASSAILLY* dit Lajeunesse, Pierre. Militaire. Baptisé le 04-01-1733, paroisse Saint-Jouin. Fils de Mathurin Assailly et de Renée Turquois. Marié à Marie-Suzanne Sauriol, à Saint-Laurent, Montréal (Qc), le 21-01-1760. Huit enfants. Soldat des troupes de la Marine, compagnie de Boisbec. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -678,22 +678,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>TAIZAY (79100)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Église Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Saint-Jean, Île d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>AUDET* dit La Pointe, Nicolas. Militaire. Baptisé le 12-07-1637, église Saint-Pierre. Fils d’Innocent Audet et de Vincente Roy. Marié à Madeleine Despres, à Sainte-Famille, Îled’Orléans (Qc), le 15-09-1670. Douze enfants. Décédé à Saint-Jean, Îled’Orléans (Qc), le 09-12-1700. Soldat au régiment de Carignan-Salières, compagnie de Monteil, embarqué à La Rochelle (Fr.), pour la Guadeloupe, le 26-02-1664, puis à destination de Québec, sur le navire « Le Brésé », le 25-04-1665. Plaque hommage sur l’église Saint-Pierre. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Église Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Saint-Jean, Île d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>TAIZAY (79100)</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AUGER, Pierre. Né entre 1655 et 1660. Fils de Louis Auger et de Suzanne Nicolas. Marié à Perrine Meunier, à Neuville (Qc), le 30-04-1685. Six enfants. Décédé à Neuville (Qc), le 08-03-1736. Première mention, en Nouvelle-France, en 1680. (IFGHFO)</t>
+          <t>LEZAY (79120)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -721,7 +721,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LEZAY (79120)</t>
+          <t>AUGER, Pierre. Né entre 1655 et 1660. Fils de Louis Auger et de Suzanne Nicolas. Marié à Perrine Meunier, à Neuville (Qc), le 30-04-1685. Six enfants. Décédé à Neuville (Qc), le 08-03-1736. Première mention, en Nouvelle-France, en 1680. (IFGHFO)</t>
         </is>
       </c>
     </row>
@@ -738,22 +738,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cherveux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>AVICE DE MOUGON*, Michel-Marie-Charles. Militaire. Baptisé le 27-03-1725, paroisse Notre-Dame. Fils de Charles-Amateur Avice et de Blanche-Colomde de Razilly. Marié à Marie-Amable Prudhomme, à Montréal (Qc), le 15-09-1760. Six enfants. Inhumé à Cherveux (Fr.), le 13-03-1780, dans son château de la Carte. Capitaine au régiment d’Aquitaine, Chevalier de Saint-Louis en 1761, lieutenant des maréchaux à Niort, en 1773. Il rentre en France, accompagné de sa femme, après la conquête anglaise. (ILMPCIFGH)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cherveux</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -770,22 +770,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-André</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lauzon (Qc)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>AYMARD* ou ÉMARD Anne. Baptisée le 22-10-1627, paroisse Saint-André. Fille de Jean Aymard et de Marie Bineau. Mariée à Guillaume Couture, à Pointe-de-Lévy, Lauzon (Qc), le 16-11-1649. Dix enfants. Décédée à Lauzon (Qc), le 17-01-1700. Partie vers la Nouvelle-France, avec ses soeurs, en 1648. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-André</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Lauzon (Qc)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Saint-André</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Château-Richer (Qc)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>AYMARD* ou ÉMARD, Barbe. Baptisée le 03-08-1625, paroisse Saint-André. Fille de Jean Aymard et de Marie Bineau. Mariée à 1) Gilles Michel, à La Rochelle (Fr.), en 1644. Un enfant. 2) Olivier Letardif, à La Rochelle (Fr.), vers 1644. Deux enfants. Décédée à Château-Richer (Qc), en 1708. Partie vers la Nouvelle-France, avec ses soeurs, en 1648. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Saint-André</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Château-Richer (Qc)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-André</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Château-Richer (Qc)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>AYMARD* ou ÉMARD, Madeleine. Baptisée le 01-08-1626, paroisse Saint-André. Fille de Jean Aymard et de Marie Bineau. Mariée à Zacharie Cloutier, à La Rochelle (Fr.), le 04-04-1648. Huit enfants. Décédée à Château-Richer (Qc), le 28-05-1708. Partie vers la Nouvelle-France, avec ses soeurs, en 1648. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-André</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Château-Richer (Qc)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>AZAY-SUR-THOUET (79130)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>BABIN* dit Paulet, Louis. Faux saunier. Baptisé le 21-12-1698, paroisse Saint-Hilaire. Fils d’Hilaire Babin dit Paulet et de Françoise Seigneuret. Marié à Marie Pelletier, à Québec, le 10-01-1731. Décédé à Québec, le 09-03-1731. Enfermé dans la prison de Thouars, en 1730. Première mention en Nouvelle-France, en 1730. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>AZAY-SUR-THOUET (79130)</t>
         </is>
       </c>
     </row>
@@ -898,22 +898,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>BÉCELEUF (79160)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Laprairie (Qc)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>BAREAU dit Bréliau, Jean. Né en 1651. Fils de Jean Bareau et de Françoise Cellier. Marié à Jeanne Cusson, à Cap-de-la-Madeleine (Qc), le 09-11-1679. Quatre enfants. Décédé à Laprairie (Qc), le 04-09-1690, tué par les Iroquois. Cité à Laprairie (Qc), le 17-08-1673. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Laprairie (Qc)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>BÉCELEUF (79160)</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BAUDOIN*, Henry. Artisan tanneur. Baptisé le 11-01-1738, dans l’abbaye Notre-Dame. Marié à Marie-Angélique Allard, à Mascouche (Qc), le 30-07-1770. Cité en Nouvelle-France, en 1769. (ILMPC)</t>
+          <t>CELLES-SUR-BELLE (79370)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -941,7 +941,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CELLES-SUR-BELLE (79370)</t>
+          <t>BAUDOIN*, Henry. Artisan tanneur. Baptisé le 11-01-1738, dans l’abbaye Notre-Dame. Marié à Marie-Angélique Allard, à Mascouche (Qc), le 30-07-1770. Cité en Nouvelle-France, en 1769. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -958,14 +958,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BEAUDIN dit Sansrémission, André. Né vers 1711. Fils de Joseph Beaudin et d’Anne-Marie Daux. Marié à 1) Élisabeth Brouillet, à Montréal (Qc), le 14-11-1737. 2) Madeleine Robreau, à Montréal (Qc), le 12-08-1748. 3) Marie-Anne Raynaud, à Montréal (Qc), le 07-01-1749. (IFGH)</t>
+          <t>FAYE-SUR-ARDIN (79160)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FAYE-SUR-ARDIN (79160)</t>
+          <t>BEAUDIN dit Sansrémission, André. Né vers 1711. Fils de Joseph Beaudin et d’Anne-Marie Daux. Marié à 1) Élisabeth Brouillet, à Montréal (Qc), le 14-11-1737. 2) Madeleine Robreau, à Montréal (Qc), le 12-08-1748. 3) Marie-Anne Raynaud, à Montréal (Qc), le 07-01-1749. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -982,22 +982,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Laprairie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>BEAUDIN* ou BAUDIN, René. Maçon, tailleur de pierres. Baptisé le 29-07-1663, paroisse Notre-Dame. Fils de Charles Baudin et de Jeanne Moinet. Marié à Suzanne Vallée, à Beauport (Qc), le 10-02-1687. Six enfants. Décédé à Laprairie (Qc), le 21-01-1737. Arrivé en Nouvelle-France, avant 1687. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Laprairie</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -1014,22 +1014,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>ARDIN (79160)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>BEAUDIN* ou BODIN dit Sansrémission, André. Militaire. Baptisé le 25-06-1710, paroisse Notre-Dame. Fils de Victor-Joseph Bodin, sieur de Beaulieu, et de Jeanne-Marie Daux. Marié à Isabelle Brouillet, à Montréal (Qc), le 14-01-1737. Décédé à Montréal (Qc), le 28-09-1776. Caporal des troupes de la Marine, compagnie de Dufiguier, arrivé en Nouvelle-France, en 1733. (FO)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>ARDIN (79160)</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>CELLES-SUR-BELLE (79370)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Prieuré Saint-Maixent de Verrines</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>BEAUDRY*, Toussaint-Auguste. Marchand. Baptisé le 28-08-1707, prieuré Saint-Maixent de Verrines. Fils de René Beaudry et d’Élisabeth Gaulthier. Marié à Jeanne Allary, à Québec, le 20-02-1748. Décédé à l’Hôtel-Dieu de Québec, en 1749. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Prieuré Saint-Maixent de Verrines</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Québec</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>CELLES-SUR-BELLE (79370)</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BEAULIEU, Joseph. Domestique du Séminaire de Québec. Né en 1665. Décédé à l’Hôtel-Dieu de Québec, le 20-12-1725. (IFGH)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>BEAULIEU, Joseph. Domestique du Séminaire de Québec. Né en 1665. Décédé à l’Hôtel-Dieu de Québec, le 20-12-1725. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>AUBIGNÉ (79110)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>BEAUMONT*, Vincent. Baptisé le 19-01-1642. Fils de Vincent Beaumont et de Jeanne Arnoux. Marié à 1) Marie Bongeaut ou Beaugendre, à Québec, le 13-11-1674. 2) Marguerite Fache ou Fasche, à Charlesbourg (Qc), le 27-10-1692. Sept enfants. Décédé à Charlesbourg (Qc), le 17-02-1709. Première mention à Québec, en 1670. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>AUBIGNÉ (79110)</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BELLEFEUILLE dit Bellefée, Louis. Militaire. Né vers 1688. Fils de René Bellefeuille et de Madeleine Gendre. Marié à Marie-Joseph Auvray, à Québec, le 20-03-1735. Quatre enfants. Soldat dans la compagnie de Gannes. Décédé, en 1758. (ILMPC-IFGH)</t>
+          <t>PIOUSSAY (79110)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PIOUSSAY (79110)</t>
+          <t>BELLEFEUILLE dit Bellefée, Louis. Militaire. Né vers 1688. Fils de René Bellefeuille et de Madeleine Gendre. Marié à Marie-Joseph Auvray, à Québec, le 20-03-1735. Quatre enfants. Soldat dans la compagnie de Gannes. Décédé, en 1758. (ILMPC-IFGH)</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>PIOUSSAY (79110)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>BENETEAU* dit Sanspeur, Jacques. Militaire. Baptisé le 21-02-1701. Fils de Jacques Beneteau et de Françoise Chevalier. Marié à Marie-Anne Deslandes, à Montréal (Qc), le 22-11-1728. Un enfant. Décédé à Montréal (Qc), le 17-09-1761. Soldat de la compagnie de Montigny. (IFGH-FO)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>PIOUSSAY (79110)</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BERIAU, Jean. Fils de Jean Beriau et de Jeanne Vincendeau. Marié à Françoise Pelletier, à Québec, le 17-08-1654. Décédé, avant le 11-10-1655. (IFGH)</t>
+          <t>MAGNÉ (79460)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MAGNÉ (79460)</t>
+          <t>BERIAU, Jean. Fils de Jean Beriau et de Jeanne Vincendeau. Marié à Françoise Pelletier, à Québec, le 17-08-1654. Décédé, avant le 11-10-1655. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -1226,22 +1226,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Léger</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Saint-François, Île-Jésus (Qc)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>BERLOUIN dit Nantel, Jean. Capitaine de milice. Né en 1670, paroisse Saint-Léger. Fils de Jacques Berlouin et de Jeanne Charon. Marié à 1) Marguerite Forget, à Lachenaie (Qc), le 07-11-1694. Cinq enfants. 2) Marguerite Delpeche, à Saint-François, Île-Jésus (Qc), le 14-09-1705. Décédé à Saint-François, Île-Jésus (Qc), le 04-11-1740. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Léger</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Saint-François, Île-Jésus (Qc)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BERNET ou BRENET dit Larose, Jean. Militaire. Né vers 1693. Fils d’Isaac Brenet et de Marie Servant. Marié à Geneviève Bigras, à Pointe-Claire (Qc), le 03-02-1734. Décédé à Saint-Laurent, Île-d’Orléans (Qc), le 21-02-1758. Soldat des troupes de la Marine, compagnie de Saint-Vincent, arrivé en Nouvelle-France, en 1723. (FO)</t>
+          <t>AZAY-LE-BRÛLÉ (79400)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AZAY-LE-BRÛLÉ (79400)</t>
+          <t>BERNET ou BRENET dit Larose, Jean. Militaire. Né vers 1693. Fils d’Isaac Brenet et de Marie Servant. Marié à Geneviève Bigras, à Pointe-Claire (Qc), le 03-02-1734. Décédé à Saint-Laurent, Île-d’Orléans (Qc), le 21-02-1758. Soldat des troupes de la Marine, compagnie de Saint-Vincent, arrivé en Nouvelle-France, en 1723. (FO)</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Saint-André</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>BERNIER*, André. Baptisé le 24-07-1663, paroisse Saint-André. Fils de Pierre Bernier et de Marguerite Baraton. Marié à Jeanne Bourret, à Charlesbourg (Qc), le 11-08-1693. Onze enfants. Décédé à Charlesbourg (Qc), le 28-09-1729. Parti pour la Nouvelle-France, vers 1693. Plaque commémorative « En hommage à notre ancêtre », sur la maison, construite sur un terrain ayant appartenu à André Bernier, de Niort (Fr.). (IFGH)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Saint-André</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -1318,22 +1318,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>PARTHENAY (79200)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Jean</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>BERTIN*, Joseph. Militaire. Baptisé le 25-01-1722, paroisse Saint-Jean. Fils de Joseph Bertin et de Catherine Poisson. Marié à Marie-Josette Lefebvre, à Cap-Santé (Qc), le 10-11-1760. Décédé à Québec, le 06-05-1776. Sergent au régiment de Languedoc, arrivé en Nouvelle-France, avant 1757. (FO)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Jean</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>PARTHENAY (79200)</t>
         </is>
       </c>
     </row>
@@ -1350,22 +1350,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>BERTRAND, Jean-Baptiste. Fils de Louis Bertrand et de Charlotte Denise. Marié à Marie-Anne Aumier, à Québec, le 20-07-1716. Sept enfants. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BIGOT* dit Lagiroflée, Jacques. Militaire. Baptisé le 27-02-1665, église Saint-Maurice. Fils de François Bigot et de Marie Perot. Marié à Madeleine Dupont, à Québec, le 25-09-1703. Soldat des troupes de la Marine, compagnie de la Groix, arrivé en Nouvelle-France, en 1698. (IFGH)</t>
+          <t>BÉCELEUF (79160)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1393,7 +1393,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BÉCELEUF (79160)</t>
+          <t>BIGOT* dit Lagiroflée, Jacques. Militaire. Baptisé le 27-02-1665, église Saint-Maurice. Fils de François Bigot et de Marie Perot. Marié à Madeleine Dupont, à Québec, le 25-09-1703. Soldat des troupes de la Marine, compagnie de la Groix, arrivé en Nouvelle-France, en 1698. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BILODEAU, Jérôme. Né vers 1636. Fils de Jérôme Bilodeau et de Marie Gandillard. Marié à Jeanne Ripoche, à Québec, le 04-02-1664. Décédé en France, après 1670. Engagé chez le notaire Cherbonnier, à La Rochelle (Fr.), pour la Nouvelle-France, le 15-03-1657. (FO)</t>
+          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
+          <t>BILODEAU, Jérôme. Né vers 1636. Fils de Jérôme Bilodeau et de Marie Gandillard. Marié à Jeanne Ripoche, à Québec, le 04-02-1664. Décédé en France, après 1670. Engagé chez le notaire Cherbonnier, à La Rochelle (Fr.), pour la Nouvelle-France, le 15-03-1657. (FO)</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BILODEAU ou BILLAUDEAU, Jacques. Né vers 1634. Fils d’Antoine Billaudeau et de Jeanne Fleurie. Marié à Geneviève Lonchamp, à Québec, le 28-10-1654. Décédé à Saint-François, Île-d’Orléans (Qc), le 08-02-1712. Arrivé en Nouvelle-France, en 1652. (FO)</t>
+          <t>PIOUSSAY (79110)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PIOUSSAY (79110)</t>
+          <t>BILODEAU ou BILLAUDEAU, Jacques. Né vers 1634. Fils d’Antoine Billaudeau et de Jeanne Fleurie. Marié à Geneviève Lonchamp, à Québec, le 28-10-1654. Décédé à Saint-François, Île-d’Orléans (Qc), le 08-02-1712. Arrivé en Nouvelle-France, en 1652. (FO)</t>
         </is>
       </c>
     </row>
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BINEAU dit La Jeunesse, Jean. Né vers 1675. Fils de Jean Bineau et de Marie Binet. Marié à Marie-Anne Pothier, à Lachine (Qc), le 05-12-1705. Trois enfants. Soldat au régiment de Carignan-Salières, compagnie de Blainville. (IFGH)</t>
+          <t>LE BUSSEAU (79240)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LE BUSSEAU (79240)</t>
+          <t>BINEAU dit La Jeunesse, Jean. Né vers 1675. Fils de Jean Bineau et de Marie Binet. Marié à Marie-Anne Pothier, à Lachine (Qc), le 05-12-1705. Trois enfants. Soldat au régiment de Carignan-Salières, compagnie de Blainville. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BLAIS, Pierre. Né vers 1642. Fermier. Fils de Mathurin Blais et de Françoise Pénigaut. Marie à 1) Anne Perrault, fille du Roy, à Sainte-Famille, Îled’Orléans (Qc), le 12-10-1669. Dix enfants. 2) Élisabeth Royer, à Saint-Jean, Île-d’Orléans (Qc), le 05-06-1689. Cinq enfants. Décédé à Saint-Jean, Île-d’Orléans (Qc), le 16-02-1700. Embarqué à la Rochelle (Fr.), sur le navire « Le Noir », en avril 1664, arrivé à Québec, le 25-05-1664. (IFGH)</t>
+          <t>HANC (79110)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>HANC (79110)</t>
+          <t>BLAIS, Pierre. Né vers 1642. Fermier. Fils de Mathurin Blais et de Françoise Pénigaut. Marie à 1) Anne Perrault, fille du Roy, à Sainte-Famille, Îled’Orléans (Qc), le 12-10-1669. Dix enfants. 2) Élisabeth Royer, à Saint-Jean, Île-d’Orléans (Qc), le 05-06-1689. Cinq enfants. Décédé à Saint-Jean, Île-d’Orléans (Qc), le 16-02-1700. Embarqué à la Rochelle (Fr.), sur le navire « Le Noir », en avril 1664, arrivé à Québec, le 25-05-1664. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BLANCHET dit Laforest, Pierre. Meunier. Né en 1643. Fils de René Blanchet et de Marie-Jeanne Marier. Marié à Marie-Françoise Harel, à Champlain (Qc), le 04-07-1696. Six enfants. Inhumé à Trois-Rivières (Qc), le 03-12-1708. (IFGH)</t>
+          <t>LE VANNEAU-IRLEAU (79270)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>LE VANNEAU-IRLEAU (79270)</t>
+          <t>BLANCHET dit Laforest, Pierre. Meunier. Né en 1643. Fils de René Blanchet et de Marie-Jeanne Marier. Marié à Marie-Françoise Harel, à Champlain (Qc), le 04-07-1696. Six enfants. Inhumé à Trois-Rivières (Qc), le 03-12-1708. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -1546,22 +1546,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>ÉTUSSON (79150)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Saint-Jean, Île-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>BLOUIN* dit Laviolette, Émery. Baptisé le 26-04-1640, église Saint-Pierre. Fils d’André Blouin et de Françoise Touzelet. Marié à Marie Carreau, à Château-Richer (Qc), le 30-11-1669. Quatorze enfants. Décédé à Saint-Jean, Île-d’Orléans (Qc), le 14-07-1707. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Saint-Jean, Île-d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>ÉTUSSON (79150)</t>
         </is>
       </c>
     </row>
@@ -1578,22 +1578,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>SAINT-JOUIN-DE-MARNES (79600)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Baie-Saint-Paul (Qc)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>BOILY*, Guillaume. Forgeron. Baptisé le 12-01-1682. Fils de d’Antoine Boily et d’Antoinette Bertrand. Marié à Louise Gagné, à Baie-Saint-Paul (Qc), le 30-10-1726. Un enfant. Décédé à Baie-Saint-Paul (Qc), le 17-02-1764. Engagé par le Séminaire de Québec, il part de La Rochelle (Fr.) et arrive à Québec, en 1724. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Baie-Saint-Paul (Qc)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>SAINT-JOUIN-DE-MARNES (79600)</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BOISMENÉ* ou BOISMENAY, Jean. Baptisé le 07-02-1651, paroisse Saint-André. Fils de François Boismenay et de Jeanne Sauvestre. Marié à Marie Bouat, à Batiscan (Qc), le 06-02-1689. Engagé à La Rochelle (Fr.), pour la Nouvelle-France, en 1664. (ILMPC-FO)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1621,7 +1621,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>BOISMENÉ* ou BOISMENAY, Jean. Baptisé le 07-02-1651, paroisse Saint-André. Fils de François Boismenay et de Jeanne Sauvestre. Marié à Marie Bouat, à Batiscan (Qc), le 06-02-1689. Engagé à La Rochelle (Fr.), pour la Nouvelle-France, en 1664. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -1638,22 +1638,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>BONNEAU*, André. Baptisé le 27-09-1643, paroisse de Notre-Dame. Il arrive en Nouvelle-France en 1676 à Sillery (Qc). Il devient religieux et réside dans le pays-d’en-Haut (Qc), de 1681 à 1690. Décédé à Pau (Fr.), en 1731. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Pau</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -1670,22 +1670,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>BRIOUX-SUR-BOUTONNE (79170)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Vernoux-sur-Boutonne</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Saint-François, Île-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>BONNEAU dit La Bécasse, Joseph. Domestique et artisan maçon. Né en 1651. Il se déclare de la paroisse de Saint-Joseph de Vernoux-sur-Boutonne. Marié à 1) Marie-Anne Lelong, fille du Roy, à Sainte-Famille, Île-d’Orléans (Qc), le 16-09-1670. 2) Marie-Madeleine Duchesne, à Saint-François, Île-d’Orléans (Qc), le 11-04-1684. Six enfants. Inhumé à Saint-François, Île-d’Orléans (Qc), le 30-11-1701. Première mention, en Nouvelle-France, en 1670. Plaque commémorative, place de la mairie de Brioux-sur-Boutonne. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Vernoux-sur-Boutonne</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Saint-François, Île-d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>BRIOUX-SUR-BOUTONNE (79170)</t>
         </is>
       </c>
     </row>
@@ -1702,22 +1702,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>VERNOUX-SUR-BOUTONNE (79170)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Joseph</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Saint-François, Île-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>BONNEAU dit La Bécasse, Joseph. Serviteur. Né en 1651, paroisse Saint-Joseph. Fils de Pierre Bonneau et de marie Lambert. Marié à 1) Marie-Anne Lelong, fille du Roy, à Sainte-Famille, Île-d’Orléans (Qc), le 16-09-1670. Six enfants. 2) Marie-Madeleine Duchesne, à Saint-François, Îled’Orléans (Qc), le 11-04-1684. Neuf enfants. Décédé à Saint-François, Île-d’Orléans (Qc), le 31-11-1701. Confirmé à Québec, le 24-08-1667. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Joseph</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Saint-François, Île-d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>VERNOUX-SUR-BOUTONNE (79170)</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BONNEAU dit Lajeunesse, Pierre. Militaire. Né entre 1647 et 1650. Fils d’Isaïe Bonneau et de Jeanne Simonnen. Marié à Marie-Madeleine Gignard, à Lachine (Qc), le 06-11-1681. Deux enfants. Décédé à Bellevue (Qc), le 30-09-1687. Caporal au régiment de Carignan-Salières, compagnie de Monteil, arrivé à Québec, en juin 1665. Caporal de la milice de Lachine (Qc), en 1687. (IFGH)</t>
+          <t>THOUARS (79100)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>THOUARS (79100)</t>
+          <t>BONNEAU dit Lajeunesse, Pierre. Militaire. Né entre 1647 et 1650. Fils d’Isaïe Bonneau et de Jeanne Simonnen. Marié à Marie-Madeleine Gignard, à Lachine (Qc), le 06-11-1681. Deux enfants. Décédé à Bellevue (Qc), le 30-09-1687. Caporal au régiment de Carignan-Salières, compagnie de Monteil, arrivé à Québec, en juin 1665. Caporal de la milice de Lachine (Qc), en 1687. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -1762,22 +1762,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>SAINT-AUBIN-DE-BAUBIGNÉ (79700)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>BORGNET* dit Desgallois ou Châtillon, Jean-Joseph. Baptisé le 22-05-1712. Fils de Louis Borgnet et de Louise Gazeau. Marié à Marie-Josèphe Caron, à Québec, le 21-04-1749. Arrivé en Nouvelle-France, en 1749. (FO)</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>SAINT-AUBIN-DE-BAUBIGNÉ (79700)</t>
         </is>
       </c>
     </row>
@@ -1794,22 +1794,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>SAINTE-VERGE (79100)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>BOUCHER dit Belleville, Jean. Né entre 1666 et 1676. Fils de Liénard Boucher et de Françoise Milot. Marié à 1) Marie Racine, à Québec, le 13-02-1696. Deux enfants. 2) Anne Laizeau, à Québec, le 09-02-1706. Un enfant. Cité à l’Hôtel-Dieu de Québec, le 01-08-1690. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>SAINTE-VERGE (79100)</t>
         </is>
       </c>
     </row>
@@ -1826,22 +1826,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>GOURNAY-LOIZÉ (79110)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Saint-Germain</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Montmagny</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>BOULAY* ou BOULET, Jacqueline. Baptisée le 10-04-1659, église Saint-Germain. Fille de Robert Boulay et de Françoise Grenier. Mariée à Pierre Joncas, à Sainte-Famille, Île-d’Orléans (Qc), le 08-06-1672. Trois enfants. Inhumée à Montmagny (Qc), le 22-02-1736. Embarquée à La Rochelle (Fr.), avec ses parents, pour Québec, en 1662. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Saint-Germain</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Montmagny</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>GOURNAY-LOIZÉ (79110)</t>
         </is>
       </c>
     </row>
@@ -1858,22 +1858,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>GOURNAY-LOIZÉ (79110)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Saint-Germain</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Montmagny (Qc)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>BOULAY ou BOULET, Robert. Né, entre 1630 et 1631, église Saint-Germain. Marié à Françoise Grenier, à Mortagne-au-Perche, Orne (Fr.), vers 1658. Dix enfants. Inhumé à Montmagny (Qc), le 25-03-1707. Embarqué à La Rochelle (Fr.), avec sa famille, pour Québec, en 1662. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Saint-Germain</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Montmagny (Qc)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>GOURNAY-LOIZÉ (79110)</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BOURDEAU dit Leroux, Isaac. Fils d’Abraham Bourdeau et de Catherine Rousseau. Marié à Marie ou Marie-Françoise Courault, à Chambly (Qc), le 20-01-1718. Quatre enfants. (IFGH)</t>
+          <t>SAINT-COUTANT (79120)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SAINT-COUTANT (79120)</t>
+          <t>BOURDEAU dit Leroux, Isaac. Fils d’Abraham Bourdeau et de Catherine Rousseau. Marié à Marie ou Marie-Françoise Courault, à Chambly (Qc), le 20-01-1718. Quatre enfants. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BOUTET dit Leboeuf, Jean. Né vers 1655. Fils de Guillaume Boutet et de Marie Jeanboeuf. Marié à Marie Guérin, à Québec, le 06-10-1687. Décédé à Charlesbourg (Qc), le 29-02-1732. Mentionné en Nouvelle-France, en 1687. (FO)</t>
+          <t>COULONGES-SUR-L’AUTIZE (79160)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>COULONGES-SUR-L’AUTIZE (79160)</t>
+          <t>BOUTET dit Leboeuf, Jean. Né vers 1655. Fils de Guillaume Boutet et de Marie Jeanboeuf. Marié à Marie Guérin, à Québec, le 06-10-1687. Décédé à Charlesbourg (Qc), le 29-02-1732. Mentionné en Nouvelle-France, en 1687. (FO)</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BOYER, Charles. Né entre 1631 et 1632. Fils de Pierre Boyer et de Denise Refence. Marié à 1) Marguerite Ténard, à Montréal (Qc), le 23-11-1666. Six enfants. 2) Louise Lebreuil, à Laprairie (Qc), le 29-10-1678. Décédé à Laprairie (Qc), entre 1698 et 1703. Embarqué à La Rochelle (Fr.), sur le navire « Le Taureau », arrivé à Québec, le 24-07-1663. (IFGH)</t>
+          <t>VASLES (79340)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VASLES (79340)</t>
+          <t>BOYER, Charles. Né entre 1631 et 1632. Fils de Pierre Boyer et de Denise Refence. Marié à 1) Marguerite Ténard, à Montréal (Qc), le 23-11-1666. Six enfants. 2) Louise Lebreuil, à Laprairie (Qc), le 29-10-1678. Décédé à Laprairie (Qc), entre 1698 et 1703. Embarqué à La Rochelle (Fr.), sur le navire « Le Taureau », arrivé à Québec, le 24-07-1663. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BRANGER dit Deslauriers, Jacques. Militaire. Né vers 1726. Fils de Jacques Branger et de Catherine Gourbault. Marié à Marie-Josephe Lemay dite Delorme, à Sault-au-Récollet (Qc), le 04-04-1758. Décédé à Montréal (Qc), le 09-03-1781. Caporal des troupes de la Marine, compagnie de Lignery, arrivé en Nouvelle-France, en 1758. (FO)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>BRANGER dit Deslauriers, Jacques. Militaire. Né vers 1726. Fils de Jacques Branger et de Catherine Gourbault. Marié à Marie-Josephe Lemay dite Delorme, à Sault-au-Récollet (Qc), le 04-04-1758. Décédé à Montréal (Qc), le 09-03-1781. Caporal des troupes de la Marine, compagnie de Lignery, arrivé en Nouvelle-France, en 1758. (FO)</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BREUILLARD ou BREUILLAC dit Laroche, Amable. Né vers 1652. Fils de Daniel Breuillac et de Jeanne Courtin. Marié à Marie Lafond, à Batiscan (Qc), le 13-02-1687. Neuf enfants. Décédé à Varennes (Qc), le 10-04-1736. Mentionné en Nouvelle-France, en 1687. (FO-IFGH)</t>
+          <t>CHAURAY (79180)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CHAURAY (79180)</t>
+          <t>BREUILLARD ou BREUILLAC dit Laroche, Amable. Né vers 1652. Fils de Daniel Breuillac et de Jeanne Courtin. Marié à Marie Lafond, à Batiscan (Qc), le 13-02-1687. Neuf enfants. Décédé à Varennes (Qc), le 10-04-1736. Mentionné en Nouvelle-France, en 1687. (FO-IFGH)</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BRIAULT* ou BRIAUD, Antoine. Chirurgien du Roy. Baptisé le 27-09-1716, église Saint-Héray. Fils de Daniel Briaud et de Louise Mercier. Marié à Marie-Anne-Charlotte Fafard de Francheville, à Trois-Rivières (Qc), en 1743. Contrat de mariage le 14-01-1743 (greffe Louis Pillard). (FO)</t>
+          <t>LA MOTHE-SAINT-HÉRAY (79800)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2037,7 +2037,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>LA MOTHE-SAINT-HÉRAY (79800)</t>
+          <t>BRIAULT* ou BRIAUD, Antoine. Chirurgien du Roy. Baptisé le 27-09-1716, église Saint-Héray. Fils de Daniel Briaud et de Louise Mercier. Marié à Marie-Anne-Charlotte Fafard de Francheville, à Trois-Rivières (Qc), en 1743. Contrat de mariage le 14-01-1743 (greffe Louis Pillard). (FO)</t>
         </is>
       </c>
     </row>
@@ -2054,22 +2054,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>BRUNET*, Pierre. Baptisé le 03-11-1669, paroisse Notre-Dame. Fils de Jean Brunet et de Nicole Cardineau. Marié à Angélique Lefèvbre, à Québec, le 04-09-1690. Cinq enfants. Décédé à Québec, avant 1712. Arrivé en Nouvelle-France, en 1688. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -2086,22 +2086,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Pointe-Olivier, Saint-Mathias (Qc)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>BRUNET*, Pierre-André. Marchand, négociant. Baptisé le 08-09-1733, paroisse Notre-Dame. Fils d’André Brunet et de Louise Roy. Marié à Marie Allard, à Chambly (Qc), le 13-07-1767. Trois enfants. Décédé à Pointe-Olivier, Saint-Mathias (Qc), le 27-12-1807. Arrivé en Nouvelle-France, en 1760. (FO-IFGH)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Pointe-Olivier, Saint-Mathias (Qc)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -2118,22 +2118,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>MAUZÉ-SUR-LE-MIGNON (79210)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>BUREAU, Isaac. Né vers 1733. Fils d’Isaac Bureau et de Marie Modet. Marié à Marie-Angélique Girard, à Montréal (Qc), le 10-01-1757. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>MAUZÉ-SUR-LE-MIGNON (79210)</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CADET, Michel. Boucher. Né vers 1665. Fils de Michel Cadet et d’Élisabeth Fièbvre. Marié à 1) Marie Constantin, à Québec, le 25-01-1694. Six enfants. 2) Geneviève Gauthier, à Québec, le 26-04-1703. Quatre enfants. Décédé à Québec, en 1708. Il abjure sa religion protestante, à Niort, le 21-08-1685. Première mention, à l’Hôtel-Dieu de Québec, le 05-06-1690. (IFGH)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>CADET, Michel. Boucher. Né vers 1665. Fils de Michel Cadet et d’Élisabeth Fièbvre. Marié à 1) Marie Constantin, à Québec, le 25-01-1694. Six enfants. 2) Geneviève Gauthier, à Québec, le 26-04-1703. Quatre enfants. Décédé à Québec, en 1708. Il abjure sa religion protestante, à Niort, le 21-08-1685. Première mention, à l’Hôtel-Dieu de Québec, le 05-06-1690. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CADOT dit Poitevin, Mathurin. Né vers 1649. Fils de René Cadot et de Renée Rossegand. Marié à Marie Durand, à Montréal (Qc), le 31-07-1688. Décédé à Batiscan (Qc), le 08-11-1729. Première mention en Nouvelle-France, en 1682. (FO)</t>
+          <t>AUGÉ (79400)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>AUGÉ (79400)</t>
+          <t>CADOT dit Poitevin, Mathurin. Né vers 1649. Fils de René Cadot et de Renée Rossegand. Marié à Marie Durand, à Montréal (Qc), le 31-07-1688. Décédé à Batiscan (Qc), le 08-11-1729. Première mention en Nouvelle-France, en 1682. (FO)</t>
         </is>
       </c>
     </row>
@@ -2206,14 +2206,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CAILLE, Alexis. Fils de Jacques Caille et de Catherine Choret. Marié à 1) Suzanne Legendre, à Québec, le 03-11-1750. 2) Marie-Anne Duval, à Yamachiche (Qc), le 31-10-1769. (IFGH)</t>
+          <t>MELLERAN (79190)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MELLERAN (79190)</t>
+          <t>CAILLE, Alexis. Fils de Jacques Caille et de Catherine Choret. Marié à 1) Suzanne Legendre, à Québec, le 03-11-1750. 2) Marie-Anne Duval, à Yamachiche (Qc), le 31-10-1769. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2230,22 +2230,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>AIRVAULT (79600)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Rivière-Ouelle (Qc)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>CASSEGRAIN*, Jean. Maître pâtissier. Baptisé le 17-02-1719, paroisse Saint-Pierre. Fils de François Cassegrain et de Catherine Lecomte. Marié à 1) Marie-Geneviève Duchesne, à Québec, le 15-06-1750. 2) Marguerite Cazeau, à Château-Richer (Qc), le 10-07-1764. Deux enfants. Décédé à Rivière-Ouelle (Qc), le 03-10-1802. (FO)</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Rivière-Ouelle (Qc)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>AIRVAULT (79600)</t>
         </is>
       </c>
     </row>
@@ -2262,22 +2262,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>BRESSUIRE (79300)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Saint-Porchaire</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>CAUCHETIÈRE*, Claude. Prêtre. Baptisé le 07-09-1645, église Saint-Porchaire. Jésuite à Bordeaux (Fr.), le 07-09-1663. Décédé à Québec, le 17-04-1709. Arrivé en Nouvelle-France, en 1677, envoyé à la mission des Iroquois, au Sault-Saint-Louis, en 1681. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Saint-Porchaire</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>BRESSUIRE (79300)</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CHAIGNON, Pierre. Né vers 1638. Fils de Michel Chaignon et de Madeleine Boursier. Marié à Marie Morin, à Beauport (Qc), le 10-08-1694. Décédé à Beauport (Qc), le 19-11-1708. (IFGH)</t>
+          <t>BEAUVOIR-SUR-NIORT (79360)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>BEAUVOIR-SUR-NIORT (79360)</t>
+          <t>CHAIGNON, Pierre. Né vers 1638. Fils de Michel Chaignon et de Madeleine Boursier. Marié à Marie Morin, à Beauport (Qc), le 10-08-1694. Décédé à Beauport (Qc), le 19-11-1708. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2322,14 +2322,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CHAILLOT ou SALIOT, Jacques. Né vers 1630. Fils de Jean Chaillot et de Marie Bourdin. Arrivé en Nouvelle-France, en 1669. Il abjure le calvinisme, à Québec, le 08-09-1669. (FO)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>CHAILLOT ou SALIOT, Jacques. Né vers 1630. Fils de Jean Chaillot et de Marie Bourdin. Arrivé en Nouvelle-France, en 1669. Il abjure le calvinisme, à Québec, le 08-09-1669. (FO)</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CHALOU* dit Saint-Pierre, Pierre-François. Maître boulanger. Baptisé le 14-05-1698, paroisse église Javarzay. Fils de Pierre-François Chalou et de Catherine Chalut. Marié à Marie Barbeau dite Boidoré, à Québec, le 18-10-1723. Six enfants. (IFGH)</t>
+          <t>CHEF-BOUTONNE (79110)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2357,7 +2357,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CHEF-BOUTONNE (79110)</t>
+          <t>CHALOU* dit Saint-Pierre, Pierre-François. Maître boulanger. Baptisé le 14-05-1698, paroisse église Javarzay. Fils de Pierre-François Chalou et de Catherine Chalut. Marié à Marie Barbeau dite Boidoré, à Québec, le 18-10-1723. Six enfants. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CHAMAILLARD dit La Fontaine, Jean-Vincent. Né entre 1640 et 1646. Fils de Jean Chamaillard et de Françoise Renar. Marié à Catherine Renusson, à Montréal (Qc), le 23-09-1676. Sept enfants. Décédé à Lachine (Qc), le 13-11-1688. Embarqué à La Rochelle (Fr.), le 13-05-1665, sur le navire « L’Aigle d’Or », arrivé à Québec, le 18-08-1665. (IFGH)</t>
+          <t>USSEAU (79210)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>USSEAU (79210)</t>
+          <t>CHAMAILLARD dit La Fontaine, Jean-Vincent. Né entre 1640 et 1646. Fils de Jean Chamaillard et de Françoise Renar. Marié à Catherine Renusson, à Montréal (Qc), le 23-09-1676. Sept enfants. Décédé à Lachine (Qc), le 13-11-1688. Embarqué à La Rochelle (Fr.), le 13-05-1665, sur le navire « L’Aigle d’Or », arrivé à Québec, le 18-08-1665. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CHANLUC ou CHALUT dit Lagrange, François. Né entre 1666 et 1667. Fils de Pierre Chanluc et de Jeanne Thibaude. Marié à 1) Marie Amaury, à Saint-François, Îled’Orléans (Qc). Contrat de mariage le 19-01-1695. Six enfants. 2) Marie-Rose Petit, à Québec, le 10-04-1714. Cité à l’Hôtel-Dieu de Québec, le 06-07-1694. (IFGH)</t>
+          <t>LIMALONGES (79190)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>LIMALONGES (79190)</t>
+          <t>CHANLUC ou CHALUT dit Lagrange, François. Né entre 1666 et 1667. Fils de Pierre Chanluc et de Jeanne Thibaude. Marié à 1) Marie Amaury, à Saint-François, Îled’Orléans (Qc). Contrat de mariage le 19-01-1695. Six enfants. 2) Marie-Rose Petit, à Québec, le 10-04-1714. Cité à l’Hôtel-Dieu de Québec, le 06-07-1694. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CHARTIER dit Parthenay, Nicolas. Fils de Pierre Chartier et de Françoise Barault. Marié à Marie-Anne Hulin, à L’Ancienne-Lorette (Qc), le 27-01-1722. (IFGH)</t>
+          <t>PARTHENAY (79200)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PARTHENAY (79200)</t>
+          <t>CHARTIER dit Parthenay, Nicolas. Fils de Pierre Chartier et de Françoise Barault. Marié à Marie-Anne Hulin, à L’Ancienne-Lorette (Qc), le 27-01-1722. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2458,14 +2458,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CHASTEAN, André. Faux saunier. Né en 1709. Emprisonné à Argenton-Château, en 1731, envoyé en Nouvelle-France, en 1743. (ILMPC)</t>
+          <t>ARGENTON-LES-VALLÉES (79150)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ARGENTON-LES-VALLÉES (79150)</t>
+          <t>CHASTEAN, André. Faux saunier. Né en 1709. Emprisonné à Argenton-Château, en 1731, envoyé en Nouvelle-France, en 1743. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CHAUVIN, Jean. Né vers 1657. Marié à 1) Suzanne Missenet, en France, avant 1689. 2) Anne Massard, au Québec, en 1689. Contrat de mariage le 11-02-1689 (greffe Gilles Rajotte), annulé par la suite. Décédé à Québec, le 24-04-1727. (IFGH)</t>
+          <t>MISSÉ (79100)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MISSÉ (79100)</t>
+          <t>CHAUVIN, Jean. Né vers 1657. Marié à 1) Suzanne Missenet, en France, avant 1689. 2) Anne Massard, au Québec, en 1689. Contrat de mariage le 11-02-1689 (greffe Gilles Rajotte), annulé par la suite. Décédé à Québec, le 24-04-1727. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CHAUVIN, Philibert. Né vers 1632. Fils de Sébastien Chauvin et de Martine Girard. Marié à Jeanne Lahaie, à Québec, le 25-10-1666. Décédé entre le 25-10-1666 et le 12-05-1669. Arrivé en Nouvelle-France, en 1666. (FO)</t>
+          <t>SAINT-JOUIN-DE-MARNES (79600)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SAINT-JOUIN-DE-MARNES (79600)</t>
+          <t>CHAUVIN, Philibert. Né vers 1632. Fils de Sébastien Chauvin et de Martine Girard. Marié à Jeanne Lahaie, à Québec, le 25-10-1666. Décédé entre le 25-10-1666 et le 12-05-1669. Arrivé en Nouvelle-France, en 1666. (FO)</t>
         </is>
       </c>
     </row>
@@ -2538,22 +2538,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Rivière-des-Prairies (Qc)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>CHRISTIN* dit Saint-Amour, Isaac. Militaire. Baptisé le 09-08-1676, paroisse Notre-Dame. Fils de Pierre Christin et de Marie Thomas. Marié à Suzanne Chartrand, à Repentigny (Qc), le 02-03-1699. Décédé à Rivière-des-Prairies (Qc), le 26-05-1757. Soldat des troupes de la Marine, compagnie de Duplessis, arrivé en Nouvelle-France, en 1699. (FO)</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Rivière-des-Prairies (Qc)</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CLOUET, Jean. Né entre 1646 et 1653. Fils de Marin Clouet et de Marie Landois. Marié à Marie Lefebvre, à Beauport (Qc), le 07-04-1682. Quatre enfants. Décédé à l’Hôtel-Dieu de Québec, le 11-10-1728. (IFGH)</t>
+          <t>BRESSUIRE (79300)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>BRESSUIRE (79300)</t>
+          <t>CLOUET, Jean. Né entre 1646 et 1653. Fils de Marin Clouet et de Marie Landois. Marié à Marie Lefebvre, à Beauport (Qc), le 07-04-1682. Quatre enfants. Décédé à l’Hôtel-Dieu de Québec, le 11-10-1728. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CONTENT, Pierre. Né entre 1638 et 1640. Fils de Michel Content et de Jeanne Martinet. Marié à Louise Landry, à Québec, le 26-09-1667. Décédé, entre 1692 et 1697. Mentionné à Québec, le 03-06-1664. (IFGH)</t>
+          <t>SAINTE-VERGE (79100)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SAINTE-VERGE (79100)</t>
+          <t>CONTENT, Pierre. Né entre 1638 et 1640. Fils de Michel Content et de Jeanne Martinet. Marié à Louise Landry, à Québec, le 26-09-1667. Décédé, entre 1692 et 1697. Mentionné à Québec, le 03-06-1664. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CORNEAU, Jean. Né entre 1662 et 1666. Fils de Mathurin Corneau et de Madeleine Poitevine. Marié à Marie Lefebvre, à Château-Richer (Qc), le 09-11-1695. Onze enfants. Décédé à Québec, le 24-08-1730. Cité à l’Hôtel-Dieu de Québec, le 01-09-1690. (IFGH)</t>
+          <t>ARGENTON-LES-VALLÉES (79150)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ARGENTON-LES-VALLÉES (79150)</t>
+          <t>CORNEAU, Jean. Né entre 1662 et 1666. Fils de Mathurin Corneau et de Madeleine Poitevine. Marié à Marie Lefebvre, à Château-Richer (Qc), le 09-11-1695. Onze enfants. Décédé à Québec, le 24-08-1730. Cité à l’Hôtel-Dieu de Québec, le 01-09-1690. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2654,22 +2654,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>BEAUVOIR-SUR-NIORT (79360)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>DAMOUR* dit Poitevin, Joseph. Militaire. Baptisé le 15-04-1710, église Saint-Nicolas. Fils de Jean Damour et de Marie-Anne Magnin. Marié à Françoise Prieur dite Lafleur, à Montréal (Qc), le 17-09-1733. Décédé à Montréal (Qc), le 06-02-1786. Soldat des troupes de la Marine, compagnie de Budemont, arrivé en Nouvelle-France, en 1732. (FO)</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>BEAUVOIR-SUR-NIORT (79360)</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DANIAU* dit Laprise, Jean. Né vers 1637. Fils de Jean Daniau et de Renée Brunet. Marié à 1) Marie-Louise Michaud, à Québec, le 10-09-1670. Quatre enfants. 2) Françoise Rondeau, à Québec, le 02-06-1686. Huit enfants. Décédé à La Durantaye (Qc), le 06-01-1709. Arrivé en Nouvelle-France, en 1670. Il abjure sa religion protestante, à Québec, le 06-09-1670. (IFGH)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>DANIAU* dit Laprise, Jean. Né vers 1637. Fils de Jean Daniau et de Renée Brunet. Marié à 1) Marie-Louise Michaud, à Québec, le 10-09-1670. Quatre enfants. 2) Françoise Rondeau, à Québec, le 02-06-1686. Huit enfants. Décédé à La Durantaye (Qc), le 06-01-1709. Arrivé en Nouvelle-France, en 1670. Il abjure sa religion protestante, à Québec, le 06-09-1670. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2714,22 +2714,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>USSEAU (79210)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Petite-Rivière-Saint-François (Qc)</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>DEQUAIN, Anne. Fille du Roy. Née vers 1645. Fille de Fleurimon Degain et d’Henriette Demeuis. Mariée à François Lareau, à Québec, le 28-10-1669. Décédée à la Petite-Rivière-Saint-François (Qc), en 1734. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Petite-Rivière-Saint-François (Qc)</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>USSEAU (79210)</t>
         </is>
       </c>
     </row>
@@ -2746,22 +2746,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>BRESSUIRE (79300)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Notre-dame</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>DESEVRE dit Poitevin, Denis. Né vers 1667, paroisse Notre-dame. Fils de Denis Desevre et de Marie Gerbière. Marié à 1) Marie-Anne Vanier, à Québec, le 11-02-1692. Quatre enfants. 2) Angélique Paquet, à Québec, le 20-08-1703. Cinq enfants. Décédé à Québec, avant 1713. Cité à l’Hôtel-Dieu de Québec, le 13-09-1690. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Notre-dame</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>BRESSUIRE (79300)</t>
         </is>
       </c>
     </row>
@@ -2778,22 +2778,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>PARTHENAY (79200)</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Paroisse Sainte-Croix</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>DESFOREST* dit Richelieu, Pierre. Artisan boulanger. Baptisé le 25-12-1702, paroisse Sainte-Croix. Fils de Michel Desforest et de Renée Bernardeau. Marié à Élisabeth Langevin, à Montréal (Qc), le 10-04-1741. Décédé à Montréal (Qc), en 1763. (ILMPC-IFGH)</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Paroisse Sainte-Croix</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>PARTHENAY (79200)</t>
         </is>
       </c>
     </row>
@@ -2810,22 +2810,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>SALLES (79800)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Saint-Martin</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>DESNOUX* ou DESNOUHES, Pierre. Chirurgien. Baptisé le 30-03-1688, église Saint-Martin. Fils de Pierre Desnouhes et de Jeanne Morineau. Marié à Marie-Josèphe Mailloux, à Québec, le 21-10-1728. Décédé, à Québec, le 29-09-1747. (FO)</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Saint-Martin</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>SALLES (79800)</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>DROUARD, Marie-Anne. Fille de Fleurant Drouard et de Jeanne Mathieu. Mariée à Jean-François Hazeur, à La Rochelle (Fr.), le 01-02-1672. Un enfant. Décédé à Québec, le 08-12-1690. (IFGH)</t>
+          <t>CHERVEUX (79410)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CHERVEUX (79410)</t>
+          <t>DROUARD, Marie-Anne. Fille de Fleurant Drouard et de Jeanne Mathieu. Mariée à Jean-François Hazeur, à La Rochelle (Fr.), le 01-02-1672. Un enfant. Décédé à Québec, le 08-12-1690. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2870,14 +2870,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>DUPONT dit Vadeboncoeur, Jacques. Sergent. Fils de Jacques Dupont et de Jeanne Fouladou. Marié à Marie-Anne Trotier, à Montréal (Qc), le 22-11-1735. (IFGH)</t>
+          <t>BRIOUX-SUR-BOUTONNE (79170)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>BRIOUX-SUR-BOUTONNE (79170)</t>
+          <t>DUPONT dit Vadeboncoeur, Jacques. Sergent. Fils de Jacques Dupont et de Jeanne Fouladou. Marié à Marie-Anne Trotier, à Montréal (Qc), le 22-11-1735. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2894,22 +2894,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>temple protestant</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>DURANCEAU* dit Brindamour, Pierre. Militaire. Baptisé le 24-03-1669, temple protestant. Fils de jean Duranceau et d’Élisabeth Marsillac. Marié à Marie-Jeanne Frappier dite Hilaire, à Québec, le 21-10-1696. Douze enfants. Décédé à l’Hôtel-Dieu de Québec, le 07-05-1731. Il abjure sa religion protestante, à Notre-Dame de Niort (Fr.), le 22-05-1682. Parti pour la Nouvelle-France, comme sergent des troupes de la Marine, compagnie de Saint-Jean. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>temple protestant</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Québec</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -2926,14 +2926,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EMERY dit Beauvais, Louis. Né vers 1699. Fils de Louis Emery et d’Anne Feaut. Marié à Marie-Anne Couvret, à Saint-Laurent, Montréal (Qc), le 01-05-1725. Quatre enfants. (IFGH)</t>
+          <t>BEAUVOIR-SUR-NIORT (79360)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>BEAUVOIR-SUR-NIORT (79360)</t>
+          <t>EMERY dit Beauvais, Louis. Né vers 1699. Fils de Louis Emery et d’Anne Feaut. Marié à Marie-Anne Couvret, à Saint-Laurent, Montréal (Qc), le 01-05-1725. Quatre enfants. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>FALIGNANT, Jean. Faux saunier. Enfermé dans la prison de Thouars et envoyé en Nouvelle-France, en 1730. (ILMPC)</t>
+          <t>AZAY-SUR-THOUET (79130)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>AZAY-SUR-THOUET (79130)</t>
+          <t>FALIGNANT, Jean. Faux saunier. Enfermé dans la prison de Thouars et envoyé en Nouvelle-France, en 1730. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -2978,22 +2978,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>SAINT-VINCENT-LA-CHÂTRE (79500)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Saint-Pierre, Île-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>FERLAND, François. Né vers 1631, paroisse de Saint-Vincent. Fils d’André Ferland et de Marguerite Bariteau. Marié à Jeanne-Françoise Milloir, à Sainte-Famille, Île-d’Orléans (Qc), le 10-07-1679. Sept enfants. Décédé à Saint-Pierre, Île-d’Orléans (Qc), en 1713. Mentionné pour la première fois, en Nouvelle-France, en 1679. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Saint-Vincent</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Saint-Pierre, Île-d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>SAINT-VINCENT-LA-CHÂTRE (79500)</t>
         </is>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>FERRU*, Thomas. Baptisé le 16-01-1699, paroisse Notre-Dame. Fils de Pierre Ferru et de Catherine Levrault. Marié à Marguerite Coulombe, à Québec, le 01-01-1727. Décédé, avant le 02-09-1748. Arrivé en Nouvelle-France, en 1726. (FO)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3021,7 +3021,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>FERRU*, Thomas. Baptisé le 16-01-1699, paroisse Notre-Dame. Fils de Pierre Ferru et de Catherine Levrault. Marié à Marguerite Coulombe, à Québec, le 01-01-1727. Décédé, avant le 02-09-1748. Arrivé en Nouvelle-France, en 1726. (FO)</t>
         </is>
       </c>
     </row>
@@ -3038,14 +3038,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>FERRIÈRE (de), Charles-François. Fils de Charles-Hector Ferrière et de Marguerite Sabourin. Marié à 1) Marie-Madeleine Roy, en France, avant 1782. 2) Angélique Nault, à La Pérade (Qc), le 01-07-1782. (IFGH)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>FERRIÈRE (de), Charles-François. Fils de Charles-Hector Ferrière et de Marguerite Sabourin. Marié à 1) Marie-Madeleine Roy, en France, avant 1782. 2) Angélique Nault, à La Pérade (Qc), le 01-07-1782. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>FILIATRAULT dit Saint-Louis, Louis. Né vers 1668. Fils de René Filiatrault et de Jacquette Génicau. Marié à Marie-Madeleine Labelle, au Québec, en 1700. Contrat de mariage le 09-01-1700 (greffe Jacob père). Seize enfants. Inhumé à Saint-François-de-Sales, Île-Jésus (Qc), le22-07-1752. (IFGH)</t>
+          <t>LA BATAILLE (79110)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>LA BATAILLE (79110)</t>
+          <t>FILIATRAULT dit Saint-Louis, Louis. Né vers 1668. Fils de René Filiatrault et de Jacquette Génicau. Marié à Marie-Madeleine Labelle, au Québec, en 1700. Contrat de mariage le 09-01-1700 (greffe Jacob père). Seize enfants. Inhumé à Saint-François-de-Sales, Île-Jésus (Qc), le22-07-1752. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3090,22 +3090,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Saint-André</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>FIÈVRE*, Catherine. Fille du Roy. Baptisée le 19-11-1646, paroisse Saint-André. Fille de Fiacre Fièvre et de Jacquette Dusol. Mariée à Charles Allaire, à Château-richer (Qc), le 10-11-1663. Treize enfants. Décédée à l’Hôtel-Dieu de Québec, le 13-06-1709. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Saint-André</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>FOUCHER dit Laforest, Louis. Né entre 1631 et 1637. Fils de Jean Foucher et Renée Hymbert. Marié à Hélène Damours, à Québec, le 06-08-1668. Six enfants. Décédé à La Pérade (Qc), le 11-05-1685. (IFGH)</t>
+          <t>LES FOSSES (79360)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>LES FOSSES (79360)</t>
+          <t>FOUCHER dit Laforest, Louis. Né entre 1631 et 1637. Fils de Jean Foucher et Renée Hymbert. Marié à Hélène Damours, à Québec, le 06-08-1668. Six enfants. Décédé à La Pérade (Qc), le 11-05-1685. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3150,22 +3150,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>FOURNIER dit Brisefer, Pierre. Fils de Pierre Fournier et de Marguerite-Hélène Métayer. Marié à Marie-Louise Lienard, à Québec, le 29-09-1749. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FRECHET, Pierre. Né vers 1656. Fils de Jean Frechet et de Jacquette Goyon. Marié à Charlotte Codin, à Beaupré (Qc), le 09-11-1671. Quatre enfants. Inhumé à Beaupré (Qc), le 28-12-1677. Embarqué à La Rochelle (Fr.), pour la Nouvelle-France, en 1658. (IFGH)</t>
+          <t>MAZIÈRES-EN-GÂTINE (79310)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>MAZIÈRES-EN-GÂTINE (79310)</t>
+          <t>FRECHET, Pierre. Né vers 1656. Fils de Jean Frechet et de Jacquette Goyon. Marié à Charlotte Codin, à Beaupré (Qc), le 09-11-1671. Quatre enfants. Inhumé à Beaupré (Qc), le 28-12-1677. Embarqué à La Rochelle (Fr.), pour la Nouvelle-France, en 1658. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3210,14 +3210,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>FRETÉ ou FERTÉ dit Lamothe, François. Né vers 1668. Fils de François Freté. Marié à Marie-Marguerite Poitiers du Buisson, état de New York, avant 1697. Six enfants. Il abjure sa religion protestante à Montréal (Qc), le 29-06-1699. (IFGH)</t>
+          <t>LA MOTHE-SAINT-HÉRAY (79800)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>LA MOTHE-SAINT-HÉRAY (79800)</t>
+          <t>FRETÉ ou FERTÉ dit Lamothe, François. Né vers 1668. Fils de François Freté. Marié à Marie-Marguerite Poitiers du Buisson, état de New York, avant 1697. Six enfants. Il abjure sa religion protestante à Montréal (Qc), le 29-06-1699. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>FUZEAU, Mathieu. Faux saunier. Né en 1705, paroisse Saint-Pierre. Fils de Mathurin Fuseau et de Marie Soulard. Marié à Françoise Serre dite Saint-Jean, à Saint-Laurent, Montréal (Qc), le 23-01-1736. Emprisonné à Mauléon et envoyé en Nouvelle-France, en 1731. (ILMPC)</t>
+          <t>CERIZAY (79290)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3245,7 +3245,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>CERIZAY (79290)</t>
+          <t>FUZEAU, Mathieu. Faux saunier. Né en 1705, paroisse Saint-Pierre. Fils de Mathurin Fuseau et de Marie Soulard. Marié à Françoise Serre dite Saint-Jean, à Saint-Laurent, Montréal (Qc), le 23-01-1736. Emprisonné à Mauléon et envoyé en Nouvelle-France, en 1731. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GABOURY dit Saint-Pierre, Pierre. Né vers 1730, paroisse Notre-Dame. Fils de Pierre Gaboury et de Marie Rossignol. Marié à Marguerite Cardinal, à Montréal (Qc), le 26-06-1752. (IFGH)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3273,7 +3273,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>GABOURY dit Saint-Pierre, Pierre. Né vers 1730, paroisse Notre-Dame. Fils de Pierre Gaboury et de Marie Rossignol. Marié à Marguerite Cardinal, à Montréal (Qc), le 26-06-1752. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3290,14 +3290,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>GAILLARD Pierre. Protestant. Fils de Pierre Gaillard et de Jacquette Jolain. Marié à Elisabeth Leclair. Un enfant. Mentionné, avec sa famille, en Caroline du Sud. (IFGH)</t>
+          <t>CHERVEUX (79410)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>CHERVEUX (79410)</t>
+          <t>GAILLARD Pierre. Protestant. Fils de Pierre Gaillard et de Jacquette Jolain. Marié à Elisabeth Leclair. Un enfant. Mentionné, avec sa famille, en Caroline du Sud. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3314,22 +3314,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>SAINTE-ÉANNE (79800)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Données introuvables</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>GAULTHIER DE COMPORTÉ, Philippe. Né en 1641. Fils de Philippe Gaultier, sieur du Rinault, et de Gillette de Vernon. Marié à Marie Bazire, à Québec, le 22-11-1672. Onze enfants. Décédé à Québec, le 22-11-1687. Engagé au régiment de Carignan-Salières, il arrive à Québec le 18 juin 1665, mais dès le 10 mai, une cour de justice du Poitou le condamne, par contumace, à la peine capitale, pour la mort de deux personnes, assez en vue dans la région, décédées des suites d’une rixe, à laquelle il a pris part, pour venger une insulte faite à son régiment. En raison de sa vie honorable et grâce à l’intercession des autorités civiles et religieuses, le roi lui accorde, en juin 1680, des lettres de rémission. Après avoir quitté l’armée, Gaultier de Comporté joue un rôle assez important dans l’administration de la colonie. Le 20 juillet 1670, il est préposé par l’intendant de Boutroue à la recette, du droit de 10 %, levée sur les marchandises arrivant au pays. Il est ensuite commissaire des magasins du Roy de 1672-1678, premier prévôt de la Maréchaussée en 1677 et, au moins à titre provisoire à partir de 1685, commissaire de la Marine. Dans tous ces postes, il semble avoir gagné la confiance générale. Talon l’a fait deux fois son procureur personnel et les religieuses de l’Hôtel-Dieu de Québec, le choisissent en 1675, pour les représenter dans une commission établie par Mgr de Laval pour faire l’estimation de tous leurs biens. Il est aussi élu marguillier de la paroisse de Québec, un grand honneur dans les années 1670 et, comme tel, est mêlé à la querelle de préséance qui oppose Buade de Frontenac et le Conseil souverain, aux grands vicaires et au séminaire, en février-mars 1675. On lui concède deux seigneuries, Comporté et La Malbaie, qu’il ne défriche pas, mais qu’il vend assez bien. Plus tard, en 1683, il est membre-fondateur de la Compagnie du Nord. Délégué en France pour obtenir la protection de la cour, il revient après avoir accompli cette mission avec succès. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Données introuvables</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>SAINTE-ÉANNE (79800)</t>
         </is>
       </c>
     </row>
@@ -3346,22 +3346,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>SAINTE-ÉANNE (79800)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Sainte-Éanne</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>GAULTIER DE RIVEAULT, Louis. Baptisé en 1656 à Sainte-Éanne. Fils de Philippe Gaultier De Riveault et de Gilette Vernon. Marié à Claire Poitevin à Sainte-Éanne (Fr.) probable, le 12-07-1682. Décédé en France, après 1681 (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Sainte-Éanne</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>SAINTE-ÉANNE (79800)</t>
         </is>
       </c>
     </row>
@@ -3378,22 +3378,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>CELLES-SUR-BELLE (79370)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Sainte-Famille, Île-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>GAUTHIER*, Joseph-Élie. Baptisé le 11-10-1643, paroisse Notre-Dame. Fils de Samuel Gauthier et de Hilaire Gourlartier. Marié à Marguerite Moitié, à Château-Richer (Qc), le 24-10-1663. Douze enfants. Décédé à Sainte-Famille, Île-d’Orléans (Qc), le 09-12-1700. Mentionné à Château-Richer (Qc), en 1660. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Sainte-Famille, Île-d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>CELLES-SUR-BELLE (79370)</t>
         </is>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>GAUTHIER*, Jean-Élie. Baptisé le 07-11-1700, église Saint-Savinien. Fils de Laurent Gauthier et d’Élisabeth Delavault. Marié à Marie-Suzanne Hallé, à Québec, le 30-06-1727. Deux enfants. Mentionné en Nouvelle-France, en 1726. (IFGH)</t>
+          <t>MELLE (79500)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3421,7 +3421,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>MELLE (79500)</t>
+          <t>GAUTHIER*, Jean-Élie. Baptisé le 07-11-1700, église Saint-Savinien. Fils de Laurent Gauthier et d’Élisabeth Delavault. Marié à Marie-Suzanne Hallé, à Québec, le 30-06-1727. Deux enfants. Mentionné en Nouvelle-France, en 1726. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3438,22 +3438,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Saint-Génard</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>La Pérade (Qc)</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>GENDRAS, Pierre. Né entre 1643 et 1349, paroisse Saint-Génard. Fils de René Gendras et de Catherine Blain. Marié à Marie Charpentier, à La Pérade (Qc), le 11-11-1671. Quatre enfants. Décédé à La Pérade (Qc), le 07-11-1724. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Saint-Génard</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>La Pérade (Qc)</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3470,14 +3470,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GENDRON dit Poitvin, Simon. Fils de Pierre-Jacques Gendron et de Marie Dionne. Marié à 1) Suzanne Bienvenu, à Détroit (Michigan), le 07-01-1748. 2) Geneviève Gagné, à Pointe-de-Montréal (Qc), le 09-06-1766. (IFGH)</t>
+          <t>SAINT-ANDRÉ-SUR-SÈVRE (79380)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>SAINT-ANDRÉ-SUR-SÈVRE (79380)</t>
+          <t>GENDRON dit Poitvin, Simon. Fils de Pierre-Jacques Gendron et de Marie Dionne. Marié à 1) Suzanne Bienvenu, à Détroit (Michigan), le 07-01-1748. 2) Geneviève Gagné, à Pointe-de-Montréal (Qc), le 09-06-1766. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3494,22 +3494,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-André</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Batiscan (Qc)</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>GERMAIN dit Magny, Jean. Né en 1639, paroisse Saint-André. Fils de Jean Germain et de Renée Charbonneaux. Marié à Catherine Baribeau, à Batiscan (Qc), le 09-09-1698. Sept enfants. Décédé à Batiscan (Qc), le 18-02-1724. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-André</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Batiscan (Qc)</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3526,22 +3526,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>MELLERAN (79190)</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>La Coussardière</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Contrecoeur</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>GIARD* ou GIAC dit Saint-Martin, Nicolas. Né au lieu-dit La Coussardière, baptisé le 14-08-1639, église Notre-Dame. Fils de Louis Giac et de Michelle David. Marié à Claude Pratte, fille du Roy, à Montréal (Qc), le 17-11-1665. Dix enfants. Décédé à Contrecoeur (Qc), après 1711. Engagé à La Rochelle (Fr.), le 29-05-1658, embarqué sur le navire « Le Taureau », arrivé à Québec, le 06-08-1658. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>La Coussardière</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Contrecoeur</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>MELLERAN (79190)</t>
         </is>
       </c>
     </row>
@@ -3558,22 +3558,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>MELLERAN (79190)</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Pointe-Olivier, Saint-Mathias (Qc)</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>GIGAUD* ou GIGAULT, François. Baptisé le 04-12-1728, église Notre-Dame. Fils d’Antoine Gigault et de Jeanne Frin. Marié à Louise Hélot, à Québec, le 08-02-1752. Décédé à Pointe-Olivier, Saint-Mathias (Qc), le 19-05-1804. (FO)</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Pointe-Olivier, Saint-Mathias (Qc)</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>MELLERAN (79190)</t>
         </is>
       </c>
     </row>
@@ -3590,14 +3590,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>GIRARD, Marie. Fille du Roy. Fille de Pierre Girard et de Catherine Mounier. Arrivée en Nouvelle-France, avec ses biens estimés à 200 livres. (IFGH)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>GIRARD, Marie. Fille du Roy. Fille de Pierre Girard et de Catherine Mounier. Arrivée en Nouvelle-France, avec ses biens estimés à 200 livres. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3614,22 +3614,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Québec</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>GIRARD* dit Brindamour, René. Militaire. Baptisé le 19-05-1678. Fils de Jacques Girard et de Nicole Coustin. Marié à Marie-Josèphe Poitras, à Québec, le 29-01-1712. Décédé à Hôtel-Dieu de Québec, le 06-02-1735. Soldat des troupes de la Marine, compagnie de Dubuisson, arrivé en Nouvelle-France, en 1709. (FO)</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Hôtel-Dieu de Québec</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
         </is>
       </c>
     </row>
@@ -3646,22 +3646,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Saint-André</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
           <t>GLORY* dit Labière, Laurent. Baptisé le 30-08-1639, paroisse Saint-André. Fils de Pierre Clory et de Louise Gautier. Marié à Jacqueline Lagrange, à Montréal (Qc), le 23-07-1664. Sept enfants. Décédé à Montréal (Qc), le 25-03-1681. Arrivé à Montréal (Qc), en 1658. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Saint-André</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3678,22 +3678,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Sainte-Marie-Madeleine</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Sainte-Famille, Île-d'Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>GOBEIL*, Françoise. Baptisée le 16-01-1656, paroisse Sainte-Marie-Madeleine. Mariée à Philippe Paquet, à l’Île-d’Orléans (Qc), le 12-06-1669. Décédée à Sainte-Famille, Île-d’Orléans (Qc), le 24-02-1716. Partie vers la Nouvelle-France, avec sa famille, en 1665. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Sainte-Marie-Madeleine</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Sainte-Famille, Île-d'Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3710,22 +3710,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Saint-Liguaire</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>GOBEIL*, Jean. Baptisé le 14-10-1627, paroisse Saint-Liguaire. Fils de Pierre Gobeil et de Catherine Chaigneau. Marié à Jeanne Guyet, à Niort (Fr.), le 14-04-1654. Quatre enfants. Décédé, après le 28-06-1702. Il est métayer dans la ferme de Chey, qui appartient à l’abbaye de Saint-Liguaire (Fr.), il traverse l’Atlantique, au départ de La Rochelle, avec sa famille, en 1665. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Saint-Liguaire</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3742,22 +3742,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Saint-Liguaire</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Not Specified</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>GOBEIL, Jeanne-Angélique. Baptisée en 1663, à Saint-Liguaire. Fille de Jean Gobeil et de Jeanne Guiet. Mariée à Louis Prat, à Québec, le 30-07-1691. Décédée, après 1716. Parti en Nouvelle-France, avec sa famille, en 1665. (FO)</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Saint-Liguaire</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Not Specified</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3774,22 +3774,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Paroisse Sainte-Marie-Madeleine</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Rivière-Ouelle (Qc)</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>GOBEIL*, Marie. Baptisée le 02-04-1659, paroisse Sainte-Marie-Madeleine. Fille de Jean Gobeil et de Jeanne Guiet. Mariée à Pierre Hudon dit Beaulieu, à Québec, le 13-07-1676. Décédée à Rivière-Ouelle (Qc), le 25-11-1736. Partie en Nouvelle-France, avec sa famille, en 1665. (FO)</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Paroisse Sainte-Marie-Madeleine</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Rivière-Ouelle (Qc)</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sainte-Marie-Madeleine</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Rivière-Ouelle (Qc)</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>GOBEIL*, Marie. Baptisée le 25-01-1655, église Sainte-Marie-Madeleine. Fille de Jean Gobeil et de Jeanne Guiet. Mariée à Robert Vaillancourt, à Château-Richer (Qc), le 30-09-1668. Décédée à Rivière-Ouelle (Qc), après le 17-04-1714. Partie en Nouvelle-France, avec sa famille, en 1665. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Sainte-Marie-Madeleine</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Rivière-Ouelle (Qc)</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>GOURDEAU, Sieur de Beaulieu et de la Grosardière, Jacques. Né en 1624. Fils de Nicolas Gourdeau et de Marguerite Michau. Marié à Eléonore de Grandmaison, à Québec, le 13-08-1652. Quatre enfants. Arrivé en Nouvelle-France, en 1658. Assassiné par un de ses domestiques, à l’île d’Orléans, le 29-05-1663, inhumé à Québec, le 02-06-1663. (IFGH)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>GOURDEAU, Sieur de Beaulieu et de la Grosardière, Jacques. Né en 1624. Fils de Nicolas Gourdeau et de Marguerite Michau. Marié à Eléonore de Grandmaison, à Québec, le 13-08-1652. Quatre enfants. Arrivé en Nouvelle-France, en 1658. Assassiné par un de ses domestiques, à l’île d’Orléans, le 29-05-1663, inhumé à Québec, le 02-06-1663. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>GRENARD* dit Lachapelle, Sébastien. Baptisé le 31-01-1666, paroisse Saint-André. Fils de Paul Grenard et de Renée Boudaire. Marié à Françoise Marien, à Québec, le 19-09-1695. Deux enfants. Décédé à l’Hôtel-Dieu de Québec, le 13-11-1698. Parti en Nouvelle-France, en 1695. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3898,22 +3898,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Saint-François, Île-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
           <t>GUICHARD, Jean-Baptiste. Fils de Jean-Baptiste Guichard et de Marie Aubry. Marié à Marie-Josèphe Gagnon, à Saint-François, Île-d’Orléans (Qc), le 07-01-1744. (IFGH)</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Saint-François, Île-d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>GUY dit Dégrois, Pierre. Né en 1683. Décédé à l’Hôtel-Dieu de Québec, le 18-03-1715. Soldat de la compagnie de Bégon. (IFGH)</t>
+          <t>AZAY-LE-BRÛLÉ (79400)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>AZAY-LE-BRÛLÉ (79400)</t>
+          <t>GUY dit Dégrois, Pierre. Né en 1683. Décédé à l’Hôtel-Dieu de Québec, le 18-03-1715. Soldat de la compagnie de Bégon. (IFGH)</t>
         </is>
       </c>
     </row>
@@ -3958,22 +3958,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>ÉCHIRÉ (79410)</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Saint-Laurent, Île-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>GUYET* ou GUIET, Jeanne. Baptisée le 15-11-1632, église Notre-Dame. Fille de Pierre Guiet et de Gabrielle Foquier. Mariée à Jean Gobeil, à Niort (Fr.), le 14-04-1654. Neuf enfants. Décédée à Saint-Laurent, Île-d’Orléans (Qc), après le 27-04-1689. Partie avec sa famille, pour la Nouvelle-France, en 1665. (FO-IFGH)</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Saint-Laurent, Île-d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>ÉCHIRÉ (79410)</t>
         </is>
       </c>
     </row>
@@ -3990,22 +3990,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>PUGNY (79320)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Paroisse Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>GUÉRINEAU, Marie-Jeanne. Née vers 1711, paroisse Saint-Pierre. Fille de Pierre Perino et de Françoise Blocheau. Mariée à Jean Perrault dit Poitevin, à Pugny (Fr.), 28-10-1730. Inhumée à Montréal (Qc), le 04-08-1777. Partie en Nouvelle-France, avec son mari et son fils, en 1743. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Paroisse Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>PUGNY (79320)</t>
         </is>
       </c>
     </row>
@@ -4022,22 +4022,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>SAINT-POMPAIN (79160)</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
           <t>HILERET* ou HILAIRET, François. Baptisé le 07-06-1638. Fils de Jean Hilairet et de Jacquette Bourdeau. Marié à Catherine Desmarais, à Québec, le 20-10-1669. Décédé entre 1703 et 1706. Engagé à la Rochelle (Fr.), chez le notaire Teuleron, pour la Nouvelle-France, le 18-02-1664. (FO)</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>SAINT-POMPAIN (79160)</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>JARD, Sieur de Boispineau, Charles. Jésuite. Baptisé en 1700. Décédé à Charlesbourg (Qc), en 1760. Mentionné en Nouvelle-France, en 1721. (ILMPC)</t>
+          <t>LA MOTHE-SAINT-HÉRAY (79800)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>LA MOTHE-SAINT-HÉRAY (79800)</t>
+          <t>JARD, Sieur de Boispineau, Charles. Jésuite. Baptisé en 1700. Décédé à Charlesbourg (Qc), en 1760. Mentionné en Nouvelle-France, en 1721. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -4082,22 +4082,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>THOUARS (79100)</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Saint-Médard</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>JOUFFARD* ou JOUSSARD dit Saint-Médard, Jean-Baptiste. Militaire. Baptisé le 19-07-1709, paroisse Saint-Médard. Fils de François Joussard et de Marguerite Deslandes. Marié à Marie-Anne Cardinal, à Montréal (Qc), le 25-11-1743. Décédé à Montréal (Qc), 19-08-1773. Soldat des troupes de la Marine, compagnie de Noyan, arrivé en Nouvelle-France, en 1734. (FO)</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Saint-Médard</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>THOUARS (79100)</t>
         </is>
       </c>
     </row>
@@ -4114,22 +4114,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>ARÇAIS (79210)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Saint-Cyr</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Pointe-de-Lévy, Lauzon (Qc)</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>JOURDAIN*, Guillaume. Baptisé le 07-12-1651, paroisse Saint-Cyr. Fils d’Hilaire Jourdain et d’Anne Betreau. Marié à Jeanne Constantin, à Québec, le 18-04-1678. Inhumé à Pointe-de-Lévy, Lauzon (Qc), le 21-02-1724. Première mention en Nouvelle-France, en 1675. (FO)</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Saint-Cyr</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Pointe-de-Lévy, Lauzon (Qc)</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>ARÇAIS (79210)</t>
         </is>
       </c>
     </row>
@@ -4146,14 +4146,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>LA CROSSE, Mathurine. Née en 1635. Fille de Jean La Crosse et de Nolette de Veau. Elle est enceinte et engagée par François Péron, à La Rochelle (Fr.) et s’embarque sur le navire « le Taureau ». Première mention en Nouvelle-France, en 1658. Renvoyée par le gouverneur Voyer d’Argenson. Mariée à Pierre Nobileau, à La Rochelle (Fr.), dans l’église du Couvent d’oratoriens Sainte-Marguerite « L’Oratoire », en 1666. (ILMPC)</t>
+          <t>FORS (79230)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>FORS (79230)</t>
+          <t>LA CROSSE, Mathurine. Née en 1635. Fille de Jean La Crosse et de Nolette de Veau. Elle est enceinte et engagée par François Péron, à La Rochelle (Fr.) et s’embarque sur le navire « le Taureau ». Première mention en Nouvelle-France, en 1658. Renvoyée par le gouverneur Voyer d’Argenson. Mariée à Pierre Nobileau, à La Rochelle (Fr.), dans l’église du Couvent d’oratoriens Sainte-Marguerite « L’Oratoire », en 1666. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>LANTHIER, Jacques. Né en 1662, église Saint-Martin. Fils de Jacques Lanthier et de Marguerite Picard. Marié à 1) Catherine-Angélique Mathon, à Montréal (Qc), le 08-02-1694. Six enfants. 2) Cunégonde Vinet, avant 1718. Parti pour la Nouvelle-France, vers 1686. (ILMPC)</t>
+          <t>BRULAIN (79230)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4181,7 +4181,7 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>BRULAIN (79230)</t>
+          <t>LANTHIER, Jacques. Né en 1662, église Saint-Martin. Fils de Jacques Lanthier et de Marguerite Picard. Marié à 1) Catherine-Angélique Mathon, à Montréal (Qc), le 08-02-1694. Six enfants. 2) Cunégonde Vinet, avant 1718. Parti pour la Nouvelle-France, vers 1686. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>LEBON ou BON dit Ferrière ou Divertissant, Charles-François. Militaire. Né vers 1732. Fils de François Bon et de Marguerite Payrault. Marié à Marie-Madeleine Roy, à Québec, le 12-01-1761. Décédé à La Pérade (Qc), le 19-08-1803. Soldat au régiment de Berry, compagnie de Pennelau, arrivé en Nouvelle-France, en 1757. (FO)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>LEBON ou BON dit Ferrière ou Divertissant, Charles-François. Militaire. Né vers 1732. Fils de François Bon et de Marguerite Payrault. Marié à Marie-Madeleine Roy, à Québec, le 12-01-1761. Décédé à La Pérade (Qc), le 19-08-1803. Soldat au régiment de Berry, compagnie de Pennelau, arrivé en Nouvelle-France, en 1757. (FO)</t>
         </is>
       </c>
     </row>
@@ -4226,22 +4226,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>LA MOTHE-SAINT-HÉRAY (79800)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
           <t>LELIÈVRE* ou LIÈVRE dit Duval, Jean-Baptiste. Chirurgien. Baptisé le 10-01-1698. Fils de Charles Lièvre et de Jeanne Jard. Marié à Marie-Josèphe Larchevêque, à Québec, le 28-10-1725. Décédé à Québec, le 16-05-1776. Mentionné en Nouvelle-France, en 1724. (FO)</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>LA MOTHE-SAINT-HÉRAY (79800)</t>
         </is>
       </c>
     </row>
@@ -4258,22 +4258,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>MELLE (79500)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
           <t>LOLLET ou JOLET, Jean. Né vers 1666. Fils d’André Jolet et de Marie Brault. Marié à Marguerite Martin, à Saint-Laurent, Île-d’Orleans (Qc), le 18-02-1692. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>MELLE (79500)</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MAGEAU dit Maisonseule, Louis. Militaire. Né vers 1645. Fils d’Abraham Mageau et de Jacquette Delavaux. Marié à Marguerite Jourdain, à Repentigny (Qc), le 08-01-1689. Décédé à Repentigny (Qc), le 17-01-1700. Soldat au régiment de Carignan-Salières, compagnie de La Fouille, arrivé en Nouvelle-France, en 1665. (FO)</t>
+          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
+          <t>MAGEAU dit Maisonseule, Louis. Militaire. Né vers 1645. Fils d’Abraham Mageau et de Jacquette Delavaux. Marié à Marguerite Jourdain, à Repentigny (Qc), le 08-01-1689. Décédé à Repentigny (Qc), le 17-01-1700. Soldat au régiment de Carignan-Salières, compagnie de La Fouille, arrivé en Nouvelle-France, en 1665. (FO)</t>
         </is>
       </c>
     </row>
@@ -4318,22 +4318,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>COULONGES-SUR-L’AUTIZE (79160)</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
           <t>MAGNAN, Jacques. Baptisé en 1636, église Saint-Étienne. Fils de Gilles Mignet et de Jeanne Touchetelle. Marié à Ambroise Doigt, à Québec, le 14-10-1669. Quatre enfants. Décédé à Charlesbourg (Qc). Engagé, par Charles Aubert, pour la nouvelle-France, en 1664. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Saint-Étienne</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>COULONGES-SUR-L’AUTIZE (79160)</t>
         </is>
       </c>
     </row>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MAGNERON dit Lajeunesse, Abraham-Jean ou Abraham. Militaire. Né vers 1663. Fils d’Abraham Magneron et de Jeanne Assailly. Marié à Catherine Delpêche, à Repentigny (Qc), en octobre 1688. Décédé à Repentigny (Qc), le 08-05-1743. Soldat des troupes de la Marine, compagnie de Villiers, arrivé en Nouvelle-France, en 1684. (FO)</t>
+          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
+          <t>MAGNERON dit Lajeunesse, Abraham-Jean ou Abraham. Militaire. Né vers 1663. Fils d’Abraham Magneron et de Jeanne Assailly. Marié à Catherine Delpêche, à Repentigny (Qc), en octobre 1688. Décédé à Repentigny (Qc), le 08-05-1743. Soldat des troupes de la Marine, compagnie de Villiers, arrivé en Nouvelle-France, en 1684. (FO)</t>
         </is>
       </c>
     </row>
@@ -4378,22 +4378,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>MAGNÉ (79460)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Charlesbourg (Qc)</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
           <t>MARCHESSAULT*, Marie. Fille du Roy. Baptisée le 22-04-1638. Fille d’Étienne Marchesseau et de Sébastienne Lamoureux. Mariée à Pierre Boutin, à Charlesbourg (Qc), vers 1669. Décédée, après le 04-08-1689. (FO)</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Charlesbourg (Qc)</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>MAGNÉ (79460)</t>
         </is>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MARCHET* ou MARCHAY, Jean. Serviteur. Baptisé le 02-07-1666. Fils de Louis Marchay et de Marguerite Colas. Marié à Jeanne Gelly, à L’Ancienne-Lorette (Qc), le 05-10-1687. Décédé à Québec, le 23-12-1732. Arrivé à Québec, en 1687, domestique de l’Hôtel-Dieu de Québec. (FO)</t>
+          <t>VILLIERS-EN-PLAINE (79160)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>VILLIERS-EN-PLAINE (79160)</t>
+          <t>MARCHET* ou MARCHAY, Jean. Serviteur. Baptisé le 02-07-1666. Fils de Louis Marchay et de Marguerite Colas. Marié à Jeanne Gelly, à L’Ancienne-Lorette (Qc), le 05-10-1687. Décédé à Québec, le 23-12-1732. Arrivé à Québec, en 1687, domestique de l’Hôtel-Dieu de Québec. (FO)</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MARIN*, Jean-Pierre. Baptisé le 18-02-1734, paroisse Notre-Dame. Marié à Marie-Geneviève Collet, à Montréal (Qc), le 09-01-1764. Première mention, en Nouvelle-France, en 1761. (ILMPC)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4449,7 +4449,7 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>MARIN*, Jean-Pierre. Baptisé le 18-02-1734, paroisse Notre-Dame. Marié à Marie-Geneviève Collet, à Montréal (Qc), le 09-01-1764. Première mention, en Nouvelle-France, en 1761. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MAROT, Jean. Fils de Jean Marot et de Madeleine Travers. Marié à Geneviève Boutin, à Beauport (Qc), le 22-12-1690. (FG)</t>
+          <t>AUGÉ (79400)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>AUGÉ (79400)</t>
+          <t>MAROT, Jean. Fils de Jean Marot et de Madeleine Travers. Marié à Geneviève Boutin, à Beauport (Qc), le 22-12-1690. (FG)</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MAROT dit Labonté, Jean. Militaire. Né vers 1666. Fils de Jean Marot et de Madeleine Travers. Marié à Geneviève Boutin, à Beauport (Qc), le 22-12-1690. Décédé à Neuville (Qc), le 23-12-1723. Soldat des troupes de la Marine, compagnie de Bouraillon, arrivé en Nouvelle-France, en 1684. (FO)</t>
+          <t>CHERVEUX (79410)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>CHERVEUX (79410)</t>
+          <t>MAROT dit Labonté, Jean. Militaire. Né vers 1666. Fils de Jean Marot et de Madeleine Travers. Marié à Geneviève Boutin, à Beauport (Qc), le 22-12-1690. Décédé à Neuville (Qc), le 23-12-1723. Soldat des troupes de la Marine, compagnie de Bouraillon, arrivé en Nouvelle-France, en 1684. (FO)</t>
         </is>
       </c>
     </row>
@@ -4522,22 +4522,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>temple calviniste</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>non spécifié</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
           <t>MARSAC* (de), Sieur de L’Oulmetrou, Jacob. Militaire. Baptisé le 19-05-1675, temple calviniste. Marié à Thérèse David, à Montréal (Qc), le 12-06-1706. Deux enfants. Décédé en 1747. Sergent des troupes de la Marine, il serait présent, lors de la fondation de Détroit (Michigan), en 1701. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>temple calviniste</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>non spécifié</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MELOCHE*, François. Marchand, voiturier. Baptisé le 11-10-1676, prieuré Saint-Pierre. Fils de François Méloche et de Thérése Hernu. Marié à Marie Mouflet, à Montréal (Qc), le 25-10-1700. Neuf enfants. (ILMPC)</t>
+          <t>FRONTENAY-ROHAN-ROHAN (79270)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4565,7 +4565,7 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>FRONTENAY-ROHAN-ROHAN (79270)</t>
+          <t>MELOCHE*, François. Marchand, voiturier. Baptisé le 11-10-1676, prieuré Saint-Pierre. Fils de François Méloche et de Thérése Hernu. Marié à Marie Mouflet, à Montréal (Qc), le 25-10-1700. Neuf enfants. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MERIAULT dit Laprairie, Pierre. Né vers 1672, paroisse Saint-André. Fils de Mathurin Meriau et de Philippe Bobier. Marié à Geneviève Huot, à Montréal (Qc), le 25-07-1699. Un enfant. Sergent des troupes de la Marine, en 1691. (ILMPC)</t>
+          <t>SAINT-ANDRÉ-SUR-SÈVRE (79380)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4593,7 +4593,7 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>SAINT-ANDRÉ-SUR-SÈVRE (79380)</t>
+          <t>MERIAULT dit Laprairie, Pierre. Né vers 1672, paroisse Saint-André. Fils de Mathurin Meriau et de Philippe Bobier. Marié à Geneviève Huot, à Montréal (Qc), le 25-07-1699. Un enfant. Sergent des troupes de la Marine, en 1691. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -4610,14 +4610,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>METIVIER, Louis. Né vers 1671. Fils de Louis Metivier et de Louise Perrochon. Marié à 1) Marie-Anne Princeau, contrat annulé par la suite. 2) Louise Savaria, à Beauport (Qc), le 29-10-1698. (FG)</t>
+          <t>AZAY-LE-BRÛLÉ (79400)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>AZAY-LE-BRÛLÉ (79400)</t>
+          <t>METIVIER, Louis. Né vers 1671. Fils de Louis Metivier et de Louise Perrochon. Marié à 1) Marie-Anne Princeau, contrat annulé par la suite. 2) Louise Savaria, à Beauport (Qc), le 29-10-1698. (FG)</t>
         </is>
       </c>
     </row>
@@ -4634,22 +4634,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>CERIZAY (79290)</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Données introuvables</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Orléans</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
           <t>MEULLES (de), Jacques. Seigneur de la Source, Intendant contesté. Fils de Pierre de Meulles, conseiller du roi. Par son mariage à la fille de Michel Bégon, en 1674, Jacques de Meulles assurait sa carrière au service du Roy : cette alliance le faisait entrer dans la famille de Jean-Baptiste Colbert, ministre de Louis XIV. Colbert nomme Jacques de Meulles, intendant de la NouvelleFrance, le 1er mai 1682. Responsable du développement de la colonie, à une époque difficile, tant du point de vue économique que militaire, il innove en imaginant une monnaie de carte à jouer, comme solution au manque aigu de numéraire ; un palliatif fréquemment repris par la suite. Il en indique la valeur, appose sa signature et s’engage à les rembourser l’année suivante. Malgré des ordres précis, il a maille à partir avec le gouverneur de La Barre, tout au long de son mandat. L’indifférence du ministre Seignelay, sa négligence à envoyer au Canada la solde des troupes destinées à calmer les nations iroquoises, de plus en plus menaçantes, incitent de Meulles à utiliser la monnaie de cartes à jouer en guise de numéraire. En 1685, Denonville, le nouveau gouverneur, l’accuse de cupidité et de trafic illégal, ce qui entraîne son rappel en France. Si les accusations portées par Denonville n’avaient pas été solidement appuyées, il est peu probable qu’on les aurait retenues, surtout si l’on songe aux liens de parenté qui unissaient de Meulles au ministre. Il faut dire à la décharge de de Meulles qu’il fut intendant de la Nouvelle-France à une époque extrêmement difficile, qu’il eut à composer avec un gouverneur d’une incompétence notoire et avec un ministre, Seignelay, qui ne fit aucun effort pour se pencher sur les problèmes canadiens et encore moins pour les régler, avant d’y être forcé par l’incurie de De La  Barre, face à la menace iroquoise. De Meulles a fait montre d’une grande souplesse et de beaucoup d’ingéniosité dans la façon dont il a réglé certains problèmes : la mobilisation des troupes de la Marine comme main-d’œuvre d’urgence et l’introduction de la monnaie de carte en témoignent. De plus, c’est à son instigation que la couronne fit l’acquisition de la brasserie abandonnée de Jean Talon et c’est lui qui en commença la rénovation et la transformation en palais de justice. De retour en France, il sollicita une entrevue avec le ministre, mais on la lui refusa. La tournure que prenaient les événements le remplissait d’une amertume compréhensible. Il prétendit que Denonville l’avait lourdement calomnié et qu’il aurait à en rendre compte un jour. Par ailleurs, les religieuses de l’Hôtel-Dieu ont consigné dans leurs annales que de Meulles avait été diffamé car il s’était acquitté de ses responsabilités d’une manière exemplaire. De Meulles se retira à Orléans où il avait acheté la charge de grand bailli et il y demeura, selon toute vraisemblance, jusqu’à sa mort, en mai 1703. (DBC)</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Données introuvables</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Orléans</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>CERIZAY (79290)</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MIMEAU, Jean. Né vers 1667, paroisse Notre-Dame-de-la-Couldre. Fils de Pierre Mimeaux et de Mathurine Renaud. Marié à Suzanne Filteau, à Saint-Jean, Île-d’Orléans (Qc), le 10-11-1698. Deux enfants. Première mention, en Nouvelle-France, en 1680. (ILMPC)</t>
+          <t>PARTHENAY (79200)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4677,7 +4677,7 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>PARTHENAY (79200)</t>
+          <t>MIMEAU, Jean. Né vers 1667, paroisse Notre-Dame-de-la-Couldre. Fils de Pierre Mimeaux et de Mathurine Renaud. Marié à Suzanne Filteau, à Saint-Jean, Île-d’Orléans (Qc), le 10-11-1698. Deux enfants. Première mention, en Nouvelle-France, en 1680. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MOINEAU* ou JAMONNEAU, Michel. Soldat. Baptisé le 24-04-1658, église Saint-Grégoire. Fils de Louis Jamoneau et de Marie Gaulthier. Marié à Marie Jodoin, à Boucherville (Qc), le 01-09-1688. Cinq enfants. Décédé avant le 19-01-1711. Première mention à Boucherville (Qc), en 1688. Également cordier, meunier et huilier. (FO)</t>
+          <t>AUGÉ (79400)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4705,7 +4705,7 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>AUGÉ (79400)</t>
+          <t>MOINEAU* ou JAMONNEAU, Michel. Soldat. Baptisé le 24-04-1658, église Saint-Grégoire. Fils de Louis Jamoneau et de Marie Gaulthier. Marié à Marie Jodoin, à Boucherville (Qc), le 01-09-1688. Cinq enfants. Décédé avant le 19-01-1711. Première mention à Boucherville (Qc), en 1688. Également cordier, meunier et huilier. (FO)</t>
         </is>
       </c>
     </row>
@@ -4722,22 +4722,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>CHAMPDENIERS-SAINT-DENIS (79220)</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Sainte-Foy (Qc)</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
           <t>MOREAU*, Mathurin. Baptisé le 09-04-1641, paroisse Notre-Dame. Fils de Louis Moreau et de Jeanne Douineau. Marié à Marie Girard, à Sillery (Qc), le 08-05-1667. Décédé à Sainte-Foy (Qc), après le 01-08-1712. Arrivé en Nouvelle-France, en 1664. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Sainte-Foy (Qc)</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>CHAMPDENIERS-SAINT-DENIS (79220)</t>
         </is>
       </c>
     </row>
@@ -4754,22 +4754,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Saint-Saturnin</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Repentigny (Qc)</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
           <t>MOREAU dit Duplessis, Jean. Militaire. Né vers 1664, paroisse Saint-Saturnin. Fils de Jean Moreau et de Suzanne Piet. Marié à Agnès Richard, à Pointe-aux-Trembles, Neuville (Qc), le 01-12-1703. Décédé à Repentigny (Qc), le 07-07-1735. Sergent des troupes de la Marine, compagnie de La Chassaigne, arrivé en Nouvelle-France, en 1699. (ILMPC-FO)</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Saint-Saturnin</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Repentigny (Qc)</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MORIN dit Chênevert, Moïse. Militaire. Né vers 1669. Fils de Aaron Morin et de Jeanne Boutin. Marié à Madeleine Monin, à Québec, le 26-11-1707. Décédé à Montréal (Qc), le 06-12-1735. Caporal des troupes de la Marine, compagnie de Noyan, arrivé en Nouvelle-France, en 1699. (FO)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>MORIN dit Chênevert, Moïse. Militaire. Né vers 1669. Fils de Aaron Morin et de Jeanne Boutin. Marié à Madeleine Monin, à Québec, le 26-11-1707. Décédé à Montréal (Qc), le 06-12-1735. Caporal des troupes de la Marine, compagnie de Noyan, arrivé en Nouvelle-France, en 1699. (FO)</t>
         </is>
       </c>
     </row>
@@ -4814,22 +4814,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>BÉCELEUF (79160)</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Berthier-en-Bas (Qc)</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
           <t>MÉNARD* dit Lachavanne, Pierre. Maître cordonnier. Baptisé le 22-03-1703, église Saint-Maurice. Fils de Pierre Ménard et de Françoise Pié. Marié à Marie-Jeanne Blais, à Berthieren-Bas (Qc), le 10-01-1735. Décédé à Berthier-en-Bas (Qc), le 05-10-1754. Arrivé en Nouvelle-France, en 1733. (FO)</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Berthier-en-Bas (Qc)</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>BÉCELEUF (79160)</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NAFRECHOU, Isaac. Né vers 1637. Fils de Jacques Nafrechou et de Louise Garnier. Marié à Catherine Leloup, à Montréal (Qc), le 19-11-1668. Décédé à Montréal (Qc), le 29-08-1724. Première mention, en Nouvelle-France, en 1662. (FO)</t>
+          <t>MAIRÉ-LEVESCAULT (79190)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>MAIRÉ-LEVESCAULT (79190)</t>
+          <t>NAFRECHOU, Isaac. Né vers 1637. Fils de Jacques Nafrechou et de Louise Garnier. Marié à Catherine Leloup, à Montréal (Qc), le 19-11-1668. Décédé à Montréal (Qc), le 29-08-1724. Première mention, en Nouvelle-France, en 1662. (FO)</t>
         </is>
       </c>
     </row>
@@ -4874,22 +4874,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Saint-Saturnin</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Île-d’Orléans (Qc), Sainte-Famille</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
           <t>NIORT DE LANORAYE, Louis. Militaire. Né vers 1639, église Saint-Saturnin. Marié à Marie-Madeleine Sevestre, à Québec, le 22-02-1672. Décédé à Sainte-Famille, Île-d’Orléans (Qc), en 1708. Capitaine au régiment de Carignan-Salières, parti en Nouvelle-France, en 1665. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Saint-Saturnin</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Île-d’Orléans (Qc), Sainte-Famille</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
         </is>
       </c>
     </row>
@@ -4906,14 +4906,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>NORMANDEAU dit Deslauriers, Augustin. Fils de Jacques Normandeau et de Catherine Boismoreau. Marié à Marie-Madeleine Sasseville, à Charlesbourg (Qc), le 18-01-1694. Contrat de mariage le 09-04-1692 (greffe Paul Vachon). Trois enfants. (FG)</t>
+          <t>THOUARS (79100)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>THOUARS (79100)</t>
+          <t>NORMANDEAU dit Deslauriers, Augustin. Fils de Jacques Normandeau et de Catherine Boismoreau. Marié à Marie-Madeleine Sasseville, à Charlesbourg (Qc), le 18-01-1694. Contrat de mariage le 09-04-1692 (greffe Paul Vachon). Trois enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -4930,22 +4930,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>ÉCHIRÉ (79410)</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Saint-Laurent, Îled’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
           <t>NOËL*, François. Baptisé le 15-04-1643, église Notre-Dame. Fils de Pierre Noël et d’Élisabeth Augustin. Marié à Nicole Legrand, à Sainte-Famille, Île-d’Orléans (Qc), le 22-10-1669. Décédé à Saint-Laurent, Îled’Orléans (Qc), le 26-05-1725. (FO)</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Saint-Laurent, Îled’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>ÉCHIRÉ (79410)</t>
         </is>
       </c>
     </row>
@@ -4962,22 +4962,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>THÉNEZAY (79390)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Saint-Honoré</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Neuville</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
           <t>OUVRARD* dit Laperrière, Louis. Baptisé le 25-08-1658, paroisse Saint-Honoré. Fils de Martin Ouvrard et de Louise Rousseau. Marié à Anne Quentin, à Château-Richer (Qc), le 01-03-1688. Décédé à Neuville (Qc), le 31-12-1690. Mentionné en Nouvelle-France, en 1688. (FO)</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Saint-Honoré</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Neuville</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>THÉNEZAY (79390)</t>
         </is>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>PAPINEAU dit Montigny, Samuel. Né en 1670. Fils de Samuel Papineau et de Marie Delaine. Marié à Catherine Cauvillon, à Rivière-des-Prairies, Montréal (Qc), le 06-06-1704. Neuf enfants. Inhumé à Sault-au-Récollet (Qc), le 23 avril 1737. (ILMPC-FO)</t>
+          <t>LA FORÊT-SUR-SÈVRE (79380)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>LA FORÊT-SUR-SÈVRE (79380)</t>
+          <t>PAPINEAU dit Montigny, Samuel. Né en 1670. Fils de Samuel Papineau et de Marie Delaine. Marié à Catherine Cauvillon, à Rivière-des-Prairies, Montréal (Qc), le 06-06-1704. Neuf enfants. Inhumé à Sault-au-Récollet (Qc), le 23 avril 1737. (ILMPC-FO)</t>
         </is>
       </c>
     </row>
@@ -5022,22 +5022,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>THOUARS (79100)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Port-Lajoie (Nouveau-Brunswick)</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
           <t>PARENT, Marie. Née vers 1700. Fille de Pierre Parent et de Marguerite Racul. Mariée à Jacques Graffard, à Port-Lajoie (Nouveau-Brunswick), le 14-06-1722. (FG)</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Port-Lajoie (Nouveau-Brunswick)</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>THOUARS (79100)</t>
         </is>
       </c>
     </row>
@@ -5054,22 +5054,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>AIRVAULT (79600)</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
           <t>RICOUS DE VAREIL DE LA BRÉJONNIÈRE*, Louis-Melchior. Baptisé le 16-09-1715, paroisse Saint-Pierre. Fils de Louis-Anne de Ricous et de Jeanne-Louise Coutocheau. Marié à Marie-Josèphe Dagneau de Lasaussaye, à Montréal (Qc), le 10-06-1748. Enseigne des troupes de la Marine, arrivé en Nouvelle-France, en 1748. (FO)</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>AIRVAULT (79600)</t>
         </is>
       </c>
     </row>
@@ -5086,22 +5086,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>PUGNY (79320)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Chambly (Qc)</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
           <t>PERRAULT* ou PAYRAULT, Jean. Baptisé le 19-09-1731, paroisse Saint-Pierre. Fils de Jean Perrault et de Marie-Jeanne Guérineau. Marié à Marie-Anne Ménard, à Montréal (Qc), le 27-06-1752. Décédé à Chambly (Qc), le 31-12-1809. Parti en Nouvelle-France, avec ses parents, en 1743. (FO)</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Chambly (Qc)</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>PUGNY (79320)</t>
         </is>
       </c>
     </row>
@@ -5118,22 +5118,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>PUGNY (79320)</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
           <t>PERRAULT dit Poitevin, Jean. Tisserand. Né vers 1702, paroisse Saint-Pierre. Fils de Jacques Payrault et de Françoise Bellocheau. Marié à Marie-Jeanne Guérineau, à Pugny (Fr.), le 28-10-1730. Décédé à Montréal (Qc), le 03-08-1754. Parti en Nouvelle-France, avec sa famille, en 1743. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>PUGNY (79320)</t>
         </is>
       </c>
     </row>
@@ -5150,22 +5150,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Saint-André</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Trois-Rivières (Qc)</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
           <t>PICARD* dit Laroche, François. Militaire. Baptisé le 14-02-1668, paroisse Saint-André. Fils de Jean Picard et de Marie Morin. Marié à Françoise Beaudry, à Trois-Rivières (Qc), le 25-08-1732. Décédé à Trois-Rivières (Qc), le 04-04-1743. Soldat des troupes de la Marine, compagnie de Subercase, arrivé en Nouvelle-France, en 1697. (FO)</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Saint-André</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Trois-Rivières (Qc)</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -5182,22 +5182,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>SAINT-MARTIN-DE-SAINT-MAIXENT (79400)</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
           <t>POISSON* dit Montreuil, François. Baptisé le 27-11-1692. Fils de François Poisson et de Suzanne Marsault. Marié à 1) Marie Auger, à Saint-Maixent (Fr.), en 1720. Contrat de mariage le 15-05-1720 (greffe Me Leberthon). 2) Catherine Dubreuil, à Québec, le 28-04-1732. Décédé, avant 1770. Première mention, en Nouvelle-France, en 1724. (FO)</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>SAINT-MARTIN-DE-SAINT-MAIXENT (79400)</t>
         </is>
       </c>
     </row>
@@ -5214,22 +5214,22 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Saint-Pierre, Île-d’Orléans (Qc)</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
           <t>PRADET* dit Laforge, Simon. Militaire. Baptisé le 13-12-1708, paroisse Saint-André. Marié à Geneviève Charon dite Laferrière, à Saint-Pierre, Île-d’Orléans (Qc), le 20-02-1730. Trois enfants. Soldat des troupes de la Marine, compagnie de Rigaud, arrivé en Nouvelle-France, en 1728. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Saint-Pierre, Île-d’Orléans (Qc)</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PÉLOQUIN dit Crédit, François. Militaire. Né vers 1659, temple calviniste, il se déclare de la paroisse Saint-André. Marié à Marie Niquette, à Trois-Rivières (Qc), le 20-07-1699. Décédé, en 1727. Soldat des troupes de la Marine, compagnie de Saint-Ours. (ILMPC)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>PÉLOQUIN dit Crédit, François. Militaire. Né vers 1659, temple calviniste, il se déclare de la paroisse Saint-André. Marié à Marie Niquette, à Trois-Rivières (Qc), le 20-07-1699. Décédé, en 1727. Soldat des troupes de la Marine, compagnie de Saint-Ours. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -5274,22 +5274,22 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>PRIN-DEYRANÇON (79210)</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Champlain</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
           <t>RAULT* ou RAOUL, Alexandre. Charpentier. Baptisé le 20-12-1633, chapelle Notre-Dame. Fils de Louis Raux et de Jacquette Robin. Marié à Marie Desrosiers, à Trois-Rivières (Qc), le 19-02-1664. Six enfants. Inhumé à Champlain (Qc), le 06-01-1692. Arrivé en Nouvelle-France, en 1661. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Champlain</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>PRIN-DEYRANÇON (79210)</t>
         </is>
       </c>
     </row>
@@ -5306,14 +5306,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PATRY, André. Fils d’André Patry et de Renée Cousineau. Marié à Henriette Cartois, fille du Roy, à Québec, le 23-05-1675. Trois enfants. (FG)</t>
+          <t>AIRVAULT (79600)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>AIRVAULT (79600)</t>
+          <t>PATRY, André. Fils d’André Patry et de Renée Cousineau. Marié à Henriette Cartois, fille du Roy, à Québec, le 23-05-1675. Trois enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -5330,22 +5330,22 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>MISSÉ (79100)</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
           <t>ROULEAU*, Louis. Baptisé le 23-01-1654, église Saint-Pierre. Marié à 1) Marie-Madeleine Dumouchel, au Québec, le 23-01-1695. Contrat annulé par la suite. 2) Françoise Geoffrion, à Montréal (Qc), le 05-03-1696. Dix enfants. Décédé en 1722. (ILMPC-FG)</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>MISSÉ (79100)</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ROUSSEAU, Thomas. Se déclare de la paroisse de Saint-Martin. Marié à 1) Gourgé, dans les Deux-Sèvres (Fr.). 2) Madeleine Olivier, à Québec, 05-10-1667. Sept enfants. 3) Françoise-Charlotte Bélanger, à Saint-Pierre, Île-d’Orléans (Qc), le 04-07-1691. Décédé à Saint-Pierre-de-la-Rivièredu-Sud (Qc), en 1716. (ILMPC)</t>
+          <t>OROUX (79390)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>OROUX (79390)</t>
+          <t>ROUSSEAU, Thomas. Se déclare de la paroisse de Saint-Martin. Marié à 1) Gourgé, dans les Deux-Sèvres (Fr.). 2) Madeleine Olivier, à Québec, 05-10-1667. Sept enfants. 3) Françoise-Charlotte Bélanger, à Saint-Pierre, Île-d’Orléans (Qc), le 04-07-1691. Décédé à Saint-Pierre-de-la-Rivièredu-Sud (Qc), en 1716. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -5390,22 +5390,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>MONTALEMBERT (79190)</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Saint-Sylvestre</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Pointe-Claire (Qc)</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
           <t>SABOURIN, Jean. Né vers 1641, église Saint-Sylvestre. Fils de Jean Sabourin et d’Antoinette Pinaud. Marié à Mathurine Renou, à La Rochelle (Fr.), le 29-04-1665. Décédé à Pointe-Claire (Qc), le 28-09-1721. Arrivé en Nouvelle-France, avec son épouse et son fils, en 1669. (FO)</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Saint-Sylvestre</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Pointe-Claire (Qc)</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>MONTALEMBERT (79190)</t>
         </is>
       </c>
     </row>
@@ -5422,14 +5422,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SABOURIN, Pierre. Né avant 1669. Fils de Jean Sabourin et de Mathurine Renou. Marié à Marie-Madeleine Perrier, à Montréal (Qc), le 24-05-1688. Cinq enfants. (FG)</t>
+          <t>MONTALEMBERT (79190)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>MONTALEMBERT (79190)</t>
+          <t>SABOURIN, Pierre. Né avant 1669. Fils de Jean Sabourin et de Mathurine Renou. Marié à Marie-Madeleine Perrier, à Montréal (Qc), le 24-05-1688. Cinq enfants. (FG)</t>
         </is>
       </c>
     </row>
@@ -5446,22 +5446,22 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
           <t>SABOURIN*, Pierre. Baptisé le 23-12-1722, paroisse Notre-Dame. Fils d’Antoine Sabourin et de Françoise Goujon. Marié à Marie-Anne Decoste de Lettancour, à Montréal (Qc), le 05-05-1755. Décédé à Montréal (Qc), le 29-10-1757. Première mention, en Nouvelle-France, en 1742. (FO)</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -5478,14 +5478,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SABOURIN dit Hautbois, Thomas. Militaire. Né vers 1650 ou 1659. Fils de René Sabourin et de Renée Galais. Marié à 1) Marguerite Laroche, à Fomperron, le 23-10-1683. Deux enfants. 2) Marie-Madeleine Tessier, en 1699 (Qc), contrat de mariage le 02-11-1699, (greffe François Genaple de Bellefonds). Première mention en Nouvelle France, en juin 1693. Soldat, joueur de hautbois, compagnie de Maupoux ou Maupeou et compagnie de M. de Vaudreuil. Hospitalisé, 17 jours, à l’Hôtel-Dieu de Québec, le 07-06-1693. (GFAN)</t>
+          <t>FOMPERRON (79340)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>FOMPERRON (79340)</t>
+          <t>SABOURIN dit Hautbois, Thomas. Militaire. Né vers 1650 ou 1659. Fils de René Sabourin et de Renée Galais. Marié à 1) Marguerite Laroche, à Fomperron, le 23-10-1683. Deux enfants. 2) Marie-Madeleine Tessier, en 1699 (Qc), contrat de mariage le 02-11-1699, (greffe François Genaple de Bellefonds). Première mention en Nouvelle France, en juin 1693. Soldat, joueur de hautbois, compagnie de Maupoux ou Maupeou et compagnie de M. de Vaudreuil. Hospitalisé, 17 jours, à l’Hôtel-Dieu de Québec, le 07-06-1693. (GFAN)</t>
         </is>
       </c>
     </row>
@@ -5502,22 +5502,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Varennes (Qc)</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
           <t>SABOURIN* dit Laperche, Antoine. Maître perruquier. Baptisé le 14-04-1718, paroisse Notre-Dame. Fils d’Antoine Sabourin et de Françoise Goujon. Marié à Marie-Madeleine Lafarge, à Québec, le 14-04-1750. Décédé à Varennes (Qc), le 01-03-1796. Première mention, en Nouvelle-France, en 1742. (FO)</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Varennes (Qc)</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -5534,22 +5534,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Notre-Dame</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Saint-Joachim (Qc)</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
           <t>SAILLANT* dit Sansoucy, Denis. Militaire. Baptisé le 15-01-1734, paroisse Notre-Dame. Fils de René Saillant et de Suzanne Rocher. Marié à Geneviève Morel, à Sainte-Annede-Beaupré (Qc), vers 1759. Décédé à Saint-Joachim (Qc), le 30-10-1800. Soldat au régiment de La Reine, compagnie de Delmas, arrivé en Nouvelle-France, en 1755. (FO)</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Notre-Dame</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Saint-Joachim (Qc)</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -5566,22 +5566,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>SAINT-SYMPHORIEN (79270)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
           <t>SARRAULT dit Laviolette, Jean. Baptisé le 08-12-1663. Fils d’Isaac Sarrault et de Jacquette Archambault. Marié à Catherine Brossard, à Montréal (Qc), le 26-04-1689. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>SAINT-SYMPHORIEN (79270)</t>
         </is>
       </c>
     </row>
@@ -5598,22 +5598,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Saint-André</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
           <t>SIMONET*, François. Baptisé le 01-01-1702, paroisse Saint-André. Fils de Philippe Simonet et de Marie Boismenay. Marié à Marguerite Bougret dite Dufort, à Boucherville (Qc), le 23-01-1736. Décédé à Montréal (Qc), le 09-12-1778. Première mention, en Nouvelle-France, en 1721. (FO)</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Saint-André</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>TAPHORIN* dit Mignerand, Guillaume. Baptisé le 30-07-1692, église Notre-Dame. Fils de Jean Taphorin et de Jeanne Merigon. Marié à Marie-Louise Routhier, à L’Ancienne-Lorette (Qc), le 23-11-1729. Quatre enfants. (ILMPC-FG)</t>
+          <t>MELLERAN (79190)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5641,7 +5641,7 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>MELLERAN (79190)</t>
+          <t>TAPHORIN* dit Mignerand, Guillaume. Baptisé le 30-07-1692, église Notre-Dame. Fils de Jean Taphorin et de Jeanne Merigon. Marié à Marie-Louise Routhier, à L’Ancienne-Lorette (Qc), le 23-11-1729. Quatre enfants. (ILMPC-FG)</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>SAINT-ROMANS-LÈS-MELLE (79500)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
           <t>TERRIÈRE*, François. Baptisé le 09-12-1698. Fils de Jean Terrière et de Marie Geoffroi. Marié à Marie-Anne Filiau, à Québec, le 12-10-1729. (ILMPC-FG)</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>SAINT-ROMANS-LÈS-MELLE (79500)</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>THIBAULT*, Louis-Paul. Baptisé le 23-10-1738, paroisse Saint-André. Fils de Simon Thibault et de Renée Lecomte. Marié à Thérèse de Saint-Ours, à Champlain (Qc), le 17-11-1760. Parti, en Nouvelle-France, avant 1759. (FO)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5701,7 +5701,7 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>THIBAULT*, Louis-Paul. Baptisé le 23-10-1738, paroisse Saint-André. Fils de Simon Thibault et de Renée Lecomte. Marié à Thérèse de Saint-Ours, à Champlain (Qc), le 17-11-1760. Parti, en Nouvelle-France, avant 1759. (FO)</t>
         </is>
       </c>
     </row>
@@ -5718,22 +5718,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>LA CHAPELLE-BÂTON (79220)</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
           <t>TRAVERS* dit Sansregret, François. Baptisé le 11-02-1680. Fils de Jean Travers et de Marie Trouvé. Marié à Françoise Meunier, à Québec, le 16-08-1712. Décédé à Québec, le 15-12-1749. (FO)</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>LA CHAPELLE-BÂTON (79220)</t>
         </is>
       </c>
     </row>
@@ -5750,22 +5750,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>LE VERT (79170)</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Non spécifié</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
           <t>TÉBRE dit Lavergne, François. Né vers 1682. Fils de Jean Tébre et de Marguerite Guertet. Marié à Anne-Robert Tourneroche, à Montréal (Qc), le 09-03-1712. Trois enfants. (FG)</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Non spécifié</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>LE VERT (79170)</t>
         </is>
       </c>
     </row>
@@ -5782,22 +5782,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>TESSONNIÈRE (79600)</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Champlain (Qc)</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
           <t>TÉTREAULT* ou TÉTREAU, Louis. Baptisé le 08-01-1631. Fils de Mathurin Tétreau et de Marie Bernard. Marié à Marie-Noëlle Landeau, à Trois-Rivières (Qc), le 09-06-1663. Décédé à Champlain (Qc), le 22-06-1699. Mentionné en Nouvelle-France, en 1661. (FO)</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Champlain (Qc)</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>TESSONNIÈRE (79600)</t>
         </is>
       </c>
     </row>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>VACHER, Pierre. Né vers 1644. Fils de Jacques Vacher et de Marie Morin. Marié à Thérèse Saunois, à Québec, le 26-10-1671. Décédé en 1672 ou 1673. Mentionné en Nouvelle-France, il abjure le calvinisme, le 05-02-1671. (FO)</t>
+          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>SAINT-MAIXENT-L’ÉCOLE (79400)</t>
+          <t>VACHER, Pierre. Né vers 1644. Fils de Jacques Vacher et de Marie Morin. Marié à Thérèse Saunois, à Québec, le 26-10-1671. Décédé en 1672 ou 1673. Mentionné en Nouvelle-France, il abjure le calvinisme, le 05-02-1671. (FO)</t>
         </is>
       </c>
     </row>
@@ -5842,22 +5842,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Sainte-Pézenne</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
           <t>VADEAU* dit Saint-Jacques, Jacques. Militaire. Baptisé le 24-10-1715, à Sainte-Pézenne. Fils de Jacques Vadeau et de Catherine Caillaud. Marié à Geneviève Georget, à Montréal (Qc), le 26-09-1740. Décédé à Montréal (Qc), le 03-06-1788. Soldat des troupes de la Marine, compagnie de Beaujeu, arrivé en Nouvelle-France, en 1739. (FO)</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Sainte-Pézenne</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Montréal (Qc)</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>VARIN DE LAMARE, Jean-Victor. Écrivain principal et contrôleur de la Marine. Né en 1699. Décédé en France, en 1786. Première mention, à Québec, en 1729. (ILMPC)</t>
+          <t>NIORT (79000)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>NIORT (79000)</t>
+          <t>VARIN DE LAMARE, Jean-Victor. Écrivain principal et contrôleur de la Marine. Né en 1699. Décédé en France, en 1786. Première mention, à Québec, en 1729. (ILMPC)</t>
         </is>
       </c>
     </row>
@@ -5902,22 +5902,22 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>NIORT (79000)</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Décès en 1741 (Lieu inconnu)</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
           <t>VEILLET, Jean. Militaire. Né en 1661, se déclare originaire de la paroisse Saint-André. Marié à Catherine Lariou, à Batiscan (Qc), le 19-11-1698. Décédé, en 1741. Il abjure sa foi protestante, en 1685, dans l’église Saint-André et traverse l’Atlantique, en 1687 au départ de La Rochelle. Soldat des troupes de la Marine, compagnie de Vaudreuil. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Décès en 1741 (Lieu inconnu)</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>NIORT (79000)</t>
         </is>
       </c>
     </row>
@@ -5934,22 +5934,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>GLÉNAY (79330)</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
           <t>VIGNEROT DE PONTCOURLAY (de), Marie-Madeleine. Marquise de Combalet, duchesse d’Aiguillon est née en 1604. Fille de René de Vignerot, seigneur de Glénay et de Françoise Duplessis, soeur du cardinal de Richelieu. Nièce de Richelieu, elle se marie, à l’âge de 16 ans, à Antoine Pont du Roure, marquis de Combalet, au Louvre, en 1620. Veuve à dix-huit ans, belle, riche, entourée d’adulateurs, la marquise de Combalet refuse de se remarier. Elle veut fuir le monde et s’enfermer dans un cloître. Mais son tuteur, l’ambitieux cardinal de Richelieu, s’oppose à son entrée en religion et désire la garder près de lui. Elle se dévoue, dès lors, aux oeuvres de charité. Parmi les oeuvres, auxquelles la marquise de Combalet, créée duchesse d’Aiguillon, s’emploie avec le plus de zèle, est l’établissement de la colonie française au Canada. Elle aide puissamment, la formation de la Compagnie de la Nouvelle-France, organisée en 1627 et c’est à sa demande, que le cardinal de Richelieu, envoie les jésuites au Canada. Elle s’intéresse, aussi, à la fondation de Ville-Marie ou Montréal. C’est elle qui écrit une supplique au Pape, pour lui demander de bénir cette oeuvre, créée à la gloire de Dieu et pour le salut des âmes. Mais son oeuvre principale dans la Nouvelle-France est la fondation de l’Hôtel-Dieu de Québec, en 1637, qu’elle dota généreusement, en accord avec son oncle le cardinal de Richelieu. Le projet d’établir un hôpital à Québec est concrétisé par une entente signée entre la duchesse et les hospitalières de l’Hôtel-Dieu de Dieppe. En 1639, ces dernières y envoient quelques religieuses pour l’aider dans sa tâche. Elles s’établissent près du château Saint-Louis, puis à Sillery, avant d’entrer dans l’Hôtel-Dieu, en 1646. La duchesse finance tout au long de sa vie ce projet, ainsi qu’une école pour jeunes filles. Elle meurt en 1674. (ILMPC)</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Inconnu</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>GLÉNAY (79330)</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ÉMARD ou AYMARD dit Poitevin, Pierre. Militaire. Né vers 1668. Fils de Pierre Éymard et de Marie Aubineau. Marié à Marguerite-Jeanne Beloy, à Longueuil (Qc), le 06-02-1702. Six enfants. Décédé à Longueuil (Qc), le 22-09-1732. Soldat des troupes de la Marine, arrivé en Nouvelle-France, en 1698. (FO)</t>
+          <t>MELLE (79500)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>MELLE (79500)</t>
+          <t>ÉMARD ou AYMARD dit Poitevin, Pierre. Militaire. Né vers 1668. Fils de Pierre Éymard et de Marie Aubineau. Marié à Marguerite-Jeanne Beloy, à Longueuil (Qc), le 06-02-1702. Six enfants. Décédé à Longueuil (Qc), le 22-09-1732. Soldat des troupes de la Marine, arrivé en Nouvelle-France, en 1698. (FO)</t>
         </is>
       </c>
     </row>
